--- a/Code/Results/Cases/Case_0_15/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_15/res_line/pl_mw.xlsx
@@ -415,16 +415,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.4871063533702795</v>
+        <v>0.4871063533703364</v>
       </c>
       <c r="D2">
-        <v>1.05093451635426</v>
+        <v>1.050934516354459</v>
       </c>
       <c r="E2">
-        <v>0.941280561100541</v>
+        <v>0.9412805611004842</v>
       </c>
       <c r="F2">
-        <v>15.17600432158963</v>
+        <v>15.17600432158943</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,10 +436,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>30.84371470793758</v>
+        <v>30.84371470793752</v>
       </c>
       <c r="K2">
-        <v>0.4404546712557575</v>
+        <v>0.440454671255786</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -453,16 +453,16 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.346595814482626</v>
+        <v>0.3465958144822707</v>
       </c>
       <c r="D3">
         <v>0.6146095743590081</v>
       </c>
       <c r="E3">
-        <v>0.6590947209194908</v>
+        <v>0.6590947209194837</v>
       </c>
       <c r="F3">
-        <v>9.787808241543161</v>
+        <v>9.78780824154299</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -474,10 +474,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>23.37126088823163</v>
+        <v>23.37126088823135</v>
       </c>
       <c r="K3">
-        <v>0.3068535641228323</v>
+        <v>0.3068535641228252</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,16 +491,16 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2921559811718737</v>
+        <v>0.2921559811718879</v>
       </c>
       <c r="D4">
-        <v>0.4729627685321844</v>
+        <v>0.4729627685323834</v>
       </c>
       <c r="E4">
-        <v>0.5521489414990839</v>
+        <v>0.5521489414990626</v>
       </c>
       <c r="F4">
-        <v>7.904086631928152</v>
+        <v>7.904086631928038</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>20.17932827752861</v>
+        <v>20.17932827752838</v>
       </c>
       <c r="K4">
-        <v>0.2565791380550166</v>
+        <v>0.2565791380550095</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -529,16 +529,16 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.272962324097648</v>
+        <v>0.2729623240972785</v>
       </c>
       <c r="D5">
-        <v>0.4268563297027299</v>
+        <v>0.4268563297024315</v>
       </c>
       <c r="E5">
-        <v>0.5146945998337742</v>
+        <v>0.5146945998337316</v>
       </c>
       <c r="F5">
-        <v>7.269800355236725</v>
+        <v>7.269800355236697</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>19.01270599532216</v>
+        <v>19.01270599532211</v>
       </c>
       <c r="K5">
-        <v>0.2390104632188716</v>
+        <v>0.2390104632188468</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -567,16 +567,16 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2699053141298862</v>
+        <v>0.2699053141297156</v>
       </c>
       <c r="D6">
-        <v>0.4197023897659165</v>
+        <v>0.4197023897657601</v>
       </c>
       <c r="E6">
-        <v>0.5087402948914388</v>
+        <v>0.5087402948914175</v>
       </c>
       <c r="F6">
-        <v>7.17027569551766</v>
+        <v>7.170275695517489</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -588,10 +588,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>18.82485648132268</v>
+        <v>18.82485648132257</v>
       </c>
       <c r="K6">
-        <v>0.2362191881552143</v>
+        <v>0.2362191881551787</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -605,16 +605,16 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.291887537833361</v>
+        <v>0.2918875378333894</v>
       </c>
       <c r="D7">
-        <v>0.4723038884001198</v>
+        <v>0.4723038884001909</v>
       </c>
       <c r="E7">
-        <v>0.5516242528629078</v>
+        <v>0.551624252862922</v>
       </c>
       <c r="F7">
-        <v>7.895104964556111</v>
+        <v>7.895104964555941</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -626,10 +626,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>20.16316283180356</v>
+        <v>20.16316283180322</v>
       </c>
       <c r="K7">
-        <v>0.2563328923054513</v>
+        <v>0.25633289230543</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -643,16 +643,16 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.4250245950860858</v>
+        <v>0.42502459508637</v>
       </c>
       <c r="D8">
-        <v>0.8458541551100609</v>
+        <v>0.8458541551103735</v>
       </c>
       <c r="E8">
-        <v>0.8153466003966372</v>
+        <v>0.8153466003966798</v>
       </c>
       <c r="F8">
-        <v>12.70658004067855</v>
+        <v>12.70658004067903</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>27.67620144789328</v>
+        <v>27.67620144789362</v>
       </c>
       <c r="K8">
-        <v>0.3806410140584475</v>
+        <v>0.3806410140584262</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -681,16 +681,16 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.4250245950860858</v>
+        <v>0.42502459508637</v>
       </c>
       <c r="D9">
-        <v>0.8458541551100609</v>
+        <v>0.8458541551103735</v>
       </c>
       <c r="E9">
-        <v>0.8153466003966372</v>
+        <v>0.8153466003966798</v>
       </c>
       <c r="F9">
-        <v>12.70658004067855</v>
+        <v>12.70658004067903</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -702,10 +702,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>27.67620144789328</v>
+        <v>27.67620144789362</v>
       </c>
       <c r="K9">
-        <v>0.3806410140584475</v>
+        <v>0.3806410140584262</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -719,16 +719,16 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.4250245950860858</v>
+        <v>0.42502459508637</v>
       </c>
       <c r="D10">
-        <v>0.8458541551100609</v>
+        <v>0.8458541551103735</v>
       </c>
       <c r="E10">
-        <v>0.8153466003966372</v>
+        <v>0.8153466003966798</v>
       </c>
       <c r="F10">
-        <v>12.70658004067855</v>
+        <v>12.70658004067903</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>27.67620144789328</v>
+        <v>27.67620144789362</v>
       </c>
       <c r="K10">
-        <v>0.3806410140584475</v>
+        <v>0.3806410140584262</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -757,16 +757,16 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4250245950860858</v>
+        <v>0.42502459508637</v>
       </c>
       <c r="D11">
-        <v>0.8458541551100609</v>
+        <v>0.8458541551103735</v>
       </c>
       <c r="E11">
-        <v>0.8153466003966372</v>
+        <v>0.8153466003966798</v>
       </c>
       <c r="F11">
-        <v>12.70658004067855</v>
+        <v>12.70658004067903</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -778,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>27.67620144789328</v>
+        <v>27.67620144789362</v>
       </c>
       <c r="K11">
-        <v>0.3806410140584475</v>
+        <v>0.3806410140584262</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -795,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4250245950860858</v>
+        <v>0.42502459508637</v>
       </c>
       <c r="D12">
-        <v>0.8458541551100609</v>
+        <v>0.8458541551103735</v>
       </c>
       <c r="E12">
-        <v>0.8153466003966372</v>
+        <v>0.8153466003966798</v>
       </c>
       <c r="F12">
-        <v>12.70658004067855</v>
+        <v>12.70658004067903</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -816,10 +816,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>27.67620144789328</v>
+        <v>27.67620144789362</v>
       </c>
       <c r="K12">
-        <v>0.3806410140584475</v>
+        <v>0.3806410140584262</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -833,16 +833,16 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4250245950860858</v>
+        <v>0.42502459508637</v>
       </c>
       <c r="D13">
-        <v>0.8458541551100609</v>
+        <v>0.8458541551103735</v>
       </c>
       <c r="E13">
-        <v>0.8153466003966372</v>
+        <v>0.8153466003966798</v>
       </c>
       <c r="F13">
-        <v>12.70658004067855</v>
+        <v>12.70658004067903</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -854,10 +854,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>27.67620144789328</v>
+        <v>27.67620144789362</v>
       </c>
       <c r="K13">
-        <v>0.3806410140584475</v>
+        <v>0.3806410140584262</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4250245950860858</v>
+        <v>0.42502459508637</v>
       </c>
       <c r="D14">
-        <v>0.8458541551100609</v>
+        <v>0.8458541551103735</v>
       </c>
       <c r="E14">
-        <v>0.8153466003966372</v>
+        <v>0.8153466003966798</v>
       </c>
       <c r="F14">
-        <v>12.70658004067855</v>
+        <v>12.70658004067903</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -892,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>27.67620144789328</v>
+        <v>27.67620144789362</v>
       </c>
       <c r="K14">
-        <v>0.3806410140584475</v>
+        <v>0.3806410140584262</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -909,16 +909,16 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4250245950860858</v>
+        <v>0.42502459508637</v>
       </c>
       <c r="D15">
-        <v>0.8458541551100609</v>
+        <v>0.8458541551103735</v>
       </c>
       <c r="E15">
-        <v>0.8153466003966372</v>
+        <v>0.8153466003966798</v>
       </c>
       <c r="F15">
-        <v>12.70658004067855</v>
+        <v>12.70658004067903</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -930,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>27.67620144789328</v>
+        <v>27.67620144789362</v>
       </c>
       <c r="K15">
-        <v>0.3806410140584475</v>
+        <v>0.3806410140584262</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -947,16 +947,16 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.4250245950860858</v>
+        <v>0.42502459508637</v>
       </c>
       <c r="D16">
-        <v>0.8458541551100609</v>
+        <v>0.8458541551103735</v>
       </c>
       <c r="E16">
-        <v>0.8153466003966372</v>
+        <v>0.8153466003966798</v>
       </c>
       <c r="F16">
-        <v>12.70658004067855</v>
+        <v>12.70658004067903</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>27.67620144789328</v>
+        <v>27.67620144789362</v>
       </c>
       <c r="K16">
-        <v>0.3806410140584475</v>
+        <v>0.3806410140584262</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -985,16 +985,16 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.4250245950860858</v>
+        <v>0.42502459508637</v>
       </c>
       <c r="D17">
-        <v>0.8458541551100609</v>
+        <v>0.8458541551103735</v>
       </c>
       <c r="E17">
-        <v>0.8153466003966372</v>
+        <v>0.8153466003966798</v>
       </c>
       <c r="F17">
-        <v>12.70658004067855</v>
+        <v>12.70658004067903</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>27.67620144789328</v>
+        <v>27.67620144789362</v>
       </c>
       <c r="K17">
-        <v>0.3806410140584475</v>
+        <v>0.3806410140584262</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1023,16 +1023,16 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.4250245950860858</v>
+        <v>0.42502459508637</v>
       </c>
       <c r="D18">
-        <v>0.8458541551100609</v>
+        <v>0.8458541551103735</v>
       </c>
       <c r="E18">
-        <v>0.8153466003966372</v>
+        <v>0.8153466003966798</v>
       </c>
       <c r="F18">
-        <v>12.70658004067855</v>
+        <v>12.70658004067903</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1044,10 +1044,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>27.67620144789328</v>
+        <v>27.67620144789362</v>
       </c>
       <c r="K18">
-        <v>0.3806410140584475</v>
+        <v>0.3806410140584262</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1061,16 +1061,16 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.4250245950860858</v>
+        <v>0.42502459508637</v>
       </c>
       <c r="D19">
-        <v>0.8458541551100609</v>
+        <v>0.8458541551103735</v>
       </c>
       <c r="E19">
-        <v>0.8153466003966372</v>
+        <v>0.8153466003966798</v>
       </c>
       <c r="F19">
-        <v>12.70658004067855</v>
+        <v>12.70658004067903</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>27.67620144789328</v>
+        <v>27.67620144789362</v>
       </c>
       <c r="K19">
-        <v>0.3806410140584475</v>
+        <v>0.3806410140584262</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.4250245950860858</v>
+        <v>0.42502459508637</v>
       </c>
       <c r="D20">
-        <v>0.8458541551100609</v>
+        <v>0.8458541551103735</v>
       </c>
       <c r="E20">
-        <v>0.8153466003966372</v>
+        <v>0.8153466003966798</v>
       </c>
       <c r="F20">
-        <v>12.70658004067855</v>
+        <v>12.70658004067903</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1120,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>27.67620144789328</v>
+        <v>27.67620144789362</v>
       </c>
       <c r="K20">
-        <v>0.3806410140584475</v>
+        <v>0.3806410140584262</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1137,16 +1137,16 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4250245950860858</v>
+        <v>0.42502459508637</v>
       </c>
       <c r="D21">
-        <v>0.8458541551100609</v>
+        <v>0.8458541551103735</v>
       </c>
       <c r="E21">
-        <v>0.8153466003966372</v>
+        <v>0.8153466003966798</v>
       </c>
       <c r="F21">
-        <v>12.70658004067855</v>
+        <v>12.70658004067903</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1158,10 +1158,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>27.67620144789328</v>
+        <v>27.67620144789362</v>
       </c>
       <c r="K21">
-        <v>0.3806410140584475</v>
+        <v>0.3806410140584262</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1175,16 +1175,16 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4250245950860858</v>
+        <v>0.42502459508637</v>
       </c>
       <c r="D22">
-        <v>0.8458541551100609</v>
+        <v>0.8458541551103735</v>
       </c>
       <c r="E22">
-        <v>0.8153466003966372</v>
+        <v>0.8153466003966798</v>
       </c>
       <c r="F22">
-        <v>12.70658004067855</v>
+        <v>12.70658004067903</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>27.67620144789328</v>
+        <v>27.67620144789362</v>
       </c>
       <c r="K22">
-        <v>0.3806410140584475</v>
+        <v>0.3806410140584262</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1213,16 +1213,16 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4250245950860858</v>
+        <v>0.42502459508637</v>
       </c>
       <c r="D23">
-        <v>0.8458541551100609</v>
+        <v>0.8458541551103735</v>
       </c>
       <c r="E23">
-        <v>0.8153466003966372</v>
+        <v>0.8153466003966798</v>
       </c>
       <c r="F23">
-        <v>12.70658004067855</v>
+        <v>12.70658004067903</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1234,10 +1234,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>27.67620144789328</v>
+        <v>27.67620144789362</v>
       </c>
       <c r="K23">
-        <v>0.3806410140584475</v>
+        <v>0.3806410140584262</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1251,16 +1251,16 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.4250245950860858</v>
+        <v>0.42502459508637</v>
       </c>
       <c r="D24">
-        <v>0.8458541551100609</v>
+        <v>0.8458541551103735</v>
       </c>
       <c r="E24">
-        <v>0.8153466003966372</v>
+        <v>0.8153466003966798</v>
       </c>
       <c r="F24">
-        <v>12.70658004067855</v>
+        <v>12.70658004067903</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1272,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>27.67620144789328</v>
+        <v>27.67620144789362</v>
       </c>
       <c r="K24">
-        <v>0.3806410140584475</v>
+        <v>0.3806410140584262</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1289,16 +1289,16 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.4250245950860858</v>
+        <v>0.42502459508637</v>
       </c>
       <c r="D25">
-        <v>0.8458541551100609</v>
+        <v>0.8458541551103735</v>
       </c>
       <c r="E25">
-        <v>0.8153466003966372</v>
+        <v>0.8153466003966798</v>
       </c>
       <c r="F25">
-        <v>12.70658004067855</v>
+        <v>12.70658004067903</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1310,10 +1310,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>27.67620144789328</v>
+        <v>27.67620144789362</v>
       </c>
       <c r="K25">
-        <v>0.3806410140584475</v>
+        <v>0.3806410140584262</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_15/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_15/res_line/pl_mw.xlsx
@@ -415,16 +415,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.4871063533703364</v>
+        <v>0.4871063533702795</v>
       </c>
       <c r="D2">
-        <v>1.050934516354459</v>
+        <v>1.05093451635426</v>
       </c>
       <c r="E2">
-        <v>0.9412805611004842</v>
+        <v>0.941280561100541</v>
       </c>
       <c r="F2">
-        <v>15.17600432158943</v>
+        <v>15.17600432158963</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,10 +436,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>30.84371470793752</v>
+        <v>30.84371470793758</v>
       </c>
       <c r="K2">
-        <v>0.440454671255786</v>
+        <v>0.4404546712557575</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -453,16 +453,16 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.3465958144822707</v>
+        <v>0.346595814482626</v>
       </c>
       <c r="D3">
         <v>0.6146095743590081</v>
       </c>
       <c r="E3">
-        <v>0.6590947209194837</v>
+        <v>0.6590947209194908</v>
       </c>
       <c r="F3">
-        <v>9.78780824154299</v>
+        <v>9.787808241543161</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -474,10 +474,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>23.37126088823135</v>
+        <v>23.37126088823163</v>
       </c>
       <c r="K3">
-        <v>0.3068535641228252</v>
+        <v>0.3068535641228323</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,16 +491,16 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2921559811718879</v>
+        <v>0.2921559811718737</v>
       </c>
       <c r="D4">
-        <v>0.4729627685323834</v>
+        <v>0.4729627685321844</v>
       </c>
       <c r="E4">
-        <v>0.5521489414990626</v>
+        <v>0.5521489414990839</v>
       </c>
       <c r="F4">
-        <v>7.904086631928038</v>
+        <v>7.904086631928152</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>20.17932827752838</v>
+        <v>20.17932827752861</v>
       </c>
       <c r="K4">
-        <v>0.2565791380550095</v>
+        <v>0.2565791380550166</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -529,16 +529,16 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2729623240972785</v>
+        <v>0.272962324097648</v>
       </c>
       <c r="D5">
-        <v>0.4268563297024315</v>
+        <v>0.4268563297027299</v>
       </c>
       <c r="E5">
-        <v>0.5146945998337316</v>
+        <v>0.5146945998337742</v>
       </c>
       <c r="F5">
-        <v>7.269800355236697</v>
+        <v>7.269800355236725</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>19.01270599532211</v>
+        <v>19.01270599532216</v>
       </c>
       <c r="K5">
-        <v>0.2390104632188468</v>
+        <v>0.2390104632188716</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -567,16 +567,16 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2699053141297156</v>
+        <v>0.2699053141298862</v>
       </c>
       <c r="D6">
-        <v>0.4197023897657601</v>
+        <v>0.4197023897659165</v>
       </c>
       <c r="E6">
-        <v>0.5087402948914175</v>
+        <v>0.5087402948914388</v>
       </c>
       <c r="F6">
-        <v>7.170275695517489</v>
+        <v>7.17027569551766</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -588,10 +588,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>18.82485648132257</v>
+        <v>18.82485648132268</v>
       </c>
       <c r="K6">
-        <v>0.2362191881551787</v>
+        <v>0.2362191881552143</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -605,16 +605,16 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2918875378333894</v>
+        <v>0.291887537833361</v>
       </c>
       <c r="D7">
-        <v>0.4723038884001909</v>
+        <v>0.4723038884001198</v>
       </c>
       <c r="E7">
-        <v>0.551624252862922</v>
+        <v>0.5516242528629078</v>
       </c>
       <c r="F7">
-        <v>7.895104964555941</v>
+        <v>7.895104964556111</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -626,10 +626,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>20.16316283180322</v>
+        <v>20.16316283180356</v>
       </c>
       <c r="K7">
-        <v>0.25633289230543</v>
+        <v>0.2563328923054513</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -643,16 +643,16 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.42502459508637</v>
+        <v>0.4250245950860858</v>
       </c>
       <c r="D8">
-        <v>0.8458541551103735</v>
+        <v>0.8458541551100609</v>
       </c>
       <c r="E8">
-        <v>0.8153466003966798</v>
+        <v>0.8153466003966372</v>
       </c>
       <c r="F8">
-        <v>12.70658004067903</v>
+        <v>12.70658004067855</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>27.67620144789362</v>
+        <v>27.67620144789328</v>
       </c>
       <c r="K8">
-        <v>0.3806410140584262</v>
+        <v>0.3806410140584475</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -681,16 +681,16 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.42502459508637</v>
+        <v>0.4250245950860858</v>
       </c>
       <c r="D9">
-        <v>0.8458541551103735</v>
+        <v>0.8458541551100609</v>
       </c>
       <c r="E9">
-        <v>0.8153466003966798</v>
+        <v>0.8153466003966372</v>
       </c>
       <c r="F9">
-        <v>12.70658004067903</v>
+        <v>12.70658004067855</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -702,10 +702,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>27.67620144789362</v>
+        <v>27.67620144789328</v>
       </c>
       <c r="K9">
-        <v>0.3806410140584262</v>
+        <v>0.3806410140584475</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -719,16 +719,16 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.42502459508637</v>
+        <v>0.4250245950860858</v>
       </c>
       <c r="D10">
-        <v>0.8458541551103735</v>
+        <v>0.8458541551100609</v>
       </c>
       <c r="E10">
-        <v>0.8153466003966798</v>
+        <v>0.8153466003966372</v>
       </c>
       <c r="F10">
-        <v>12.70658004067903</v>
+        <v>12.70658004067855</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>27.67620144789362</v>
+        <v>27.67620144789328</v>
       </c>
       <c r="K10">
-        <v>0.3806410140584262</v>
+        <v>0.3806410140584475</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -757,16 +757,16 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.42502459508637</v>
+        <v>0.4250245950860858</v>
       </c>
       <c r="D11">
-        <v>0.8458541551103735</v>
+        <v>0.8458541551100609</v>
       </c>
       <c r="E11">
-        <v>0.8153466003966798</v>
+        <v>0.8153466003966372</v>
       </c>
       <c r="F11">
-        <v>12.70658004067903</v>
+        <v>12.70658004067855</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -778,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>27.67620144789362</v>
+        <v>27.67620144789328</v>
       </c>
       <c r="K11">
-        <v>0.3806410140584262</v>
+        <v>0.3806410140584475</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -795,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.42502459508637</v>
+        <v>0.4250245950860858</v>
       </c>
       <c r="D12">
-        <v>0.8458541551103735</v>
+        <v>0.8458541551100609</v>
       </c>
       <c r="E12">
-        <v>0.8153466003966798</v>
+        <v>0.8153466003966372</v>
       </c>
       <c r="F12">
-        <v>12.70658004067903</v>
+        <v>12.70658004067855</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -816,10 +816,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>27.67620144789362</v>
+        <v>27.67620144789328</v>
       </c>
       <c r="K12">
-        <v>0.3806410140584262</v>
+        <v>0.3806410140584475</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -833,16 +833,16 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.42502459508637</v>
+        <v>0.4250245950860858</v>
       </c>
       <c r="D13">
-        <v>0.8458541551103735</v>
+        <v>0.8458541551100609</v>
       </c>
       <c r="E13">
-        <v>0.8153466003966798</v>
+        <v>0.8153466003966372</v>
       </c>
       <c r="F13">
-        <v>12.70658004067903</v>
+        <v>12.70658004067855</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -854,10 +854,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>27.67620144789362</v>
+        <v>27.67620144789328</v>
       </c>
       <c r="K13">
-        <v>0.3806410140584262</v>
+        <v>0.3806410140584475</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.42502459508637</v>
+        <v>0.4250245950860858</v>
       </c>
       <c r="D14">
-        <v>0.8458541551103735</v>
+        <v>0.8458541551100609</v>
       </c>
       <c r="E14">
-        <v>0.8153466003966798</v>
+        <v>0.8153466003966372</v>
       </c>
       <c r="F14">
-        <v>12.70658004067903</v>
+        <v>12.70658004067855</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -892,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>27.67620144789362</v>
+        <v>27.67620144789328</v>
       </c>
       <c r="K14">
-        <v>0.3806410140584262</v>
+        <v>0.3806410140584475</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -909,16 +909,16 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.42502459508637</v>
+        <v>0.4250245950860858</v>
       </c>
       <c r="D15">
-        <v>0.8458541551103735</v>
+        <v>0.8458541551100609</v>
       </c>
       <c r="E15">
-        <v>0.8153466003966798</v>
+        <v>0.8153466003966372</v>
       </c>
       <c r="F15">
-        <v>12.70658004067903</v>
+        <v>12.70658004067855</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -930,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>27.67620144789362</v>
+        <v>27.67620144789328</v>
       </c>
       <c r="K15">
-        <v>0.3806410140584262</v>
+        <v>0.3806410140584475</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -947,16 +947,16 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.42502459508637</v>
+        <v>0.4250245950860858</v>
       </c>
       <c r="D16">
-        <v>0.8458541551103735</v>
+        <v>0.8458541551100609</v>
       </c>
       <c r="E16">
-        <v>0.8153466003966798</v>
+        <v>0.8153466003966372</v>
       </c>
       <c r="F16">
-        <v>12.70658004067903</v>
+        <v>12.70658004067855</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>27.67620144789362</v>
+        <v>27.67620144789328</v>
       </c>
       <c r="K16">
-        <v>0.3806410140584262</v>
+        <v>0.3806410140584475</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -985,16 +985,16 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.42502459508637</v>
+        <v>0.4250245950860858</v>
       </c>
       <c r="D17">
-        <v>0.8458541551103735</v>
+        <v>0.8458541551100609</v>
       </c>
       <c r="E17">
-        <v>0.8153466003966798</v>
+        <v>0.8153466003966372</v>
       </c>
       <c r="F17">
-        <v>12.70658004067903</v>
+        <v>12.70658004067855</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>27.67620144789362</v>
+        <v>27.67620144789328</v>
       </c>
       <c r="K17">
-        <v>0.3806410140584262</v>
+        <v>0.3806410140584475</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1023,16 +1023,16 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.42502459508637</v>
+        <v>0.4250245950860858</v>
       </c>
       <c r="D18">
-        <v>0.8458541551103735</v>
+        <v>0.8458541551100609</v>
       </c>
       <c r="E18">
-        <v>0.8153466003966798</v>
+        <v>0.8153466003966372</v>
       </c>
       <c r="F18">
-        <v>12.70658004067903</v>
+        <v>12.70658004067855</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1044,10 +1044,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>27.67620144789362</v>
+        <v>27.67620144789328</v>
       </c>
       <c r="K18">
-        <v>0.3806410140584262</v>
+        <v>0.3806410140584475</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1061,16 +1061,16 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.42502459508637</v>
+        <v>0.4250245950860858</v>
       </c>
       <c r="D19">
-        <v>0.8458541551103735</v>
+        <v>0.8458541551100609</v>
       </c>
       <c r="E19">
-        <v>0.8153466003966798</v>
+        <v>0.8153466003966372</v>
       </c>
       <c r="F19">
-        <v>12.70658004067903</v>
+        <v>12.70658004067855</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>27.67620144789362</v>
+        <v>27.67620144789328</v>
       </c>
       <c r="K19">
-        <v>0.3806410140584262</v>
+        <v>0.3806410140584475</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.42502459508637</v>
+        <v>0.4250245950860858</v>
       </c>
       <c r="D20">
-        <v>0.8458541551103735</v>
+        <v>0.8458541551100609</v>
       </c>
       <c r="E20">
-        <v>0.8153466003966798</v>
+        <v>0.8153466003966372</v>
       </c>
       <c r="F20">
-        <v>12.70658004067903</v>
+        <v>12.70658004067855</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1120,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>27.67620144789362</v>
+        <v>27.67620144789328</v>
       </c>
       <c r="K20">
-        <v>0.3806410140584262</v>
+        <v>0.3806410140584475</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1137,16 +1137,16 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.42502459508637</v>
+        <v>0.4250245950860858</v>
       </c>
       <c r="D21">
-        <v>0.8458541551103735</v>
+        <v>0.8458541551100609</v>
       </c>
       <c r="E21">
-        <v>0.8153466003966798</v>
+        <v>0.8153466003966372</v>
       </c>
       <c r="F21">
-        <v>12.70658004067903</v>
+        <v>12.70658004067855</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1158,10 +1158,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>27.67620144789362</v>
+        <v>27.67620144789328</v>
       </c>
       <c r="K21">
-        <v>0.3806410140584262</v>
+        <v>0.3806410140584475</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1175,16 +1175,16 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.42502459508637</v>
+        <v>0.4250245950860858</v>
       </c>
       <c r="D22">
-        <v>0.8458541551103735</v>
+        <v>0.8458541551100609</v>
       </c>
       <c r="E22">
-        <v>0.8153466003966798</v>
+        <v>0.8153466003966372</v>
       </c>
       <c r="F22">
-        <v>12.70658004067903</v>
+        <v>12.70658004067855</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>27.67620144789362</v>
+        <v>27.67620144789328</v>
       </c>
       <c r="K22">
-        <v>0.3806410140584262</v>
+        <v>0.3806410140584475</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1213,16 +1213,16 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.42502459508637</v>
+        <v>0.4250245950860858</v>
       </c>
       <c r="D23">
-        <v>0.8458541551103735</v>
+        <v>0.8458541551100609</v>
       </c>
       <c r="E23">
-        <v>0.8153466003966798</v>
+        <v>0.8153466003966372</v>
       </c>
       <c r="F23">
-        <v>12.70658004067903</v>
+        <v>12.70658004067855</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1234,10 +1234,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>27.67620144789362</v>
+        <v>27.67620144789328</v>
       </c>
       <c r="K23">
-        <v>0.3806410140584262</v>
+        <v>0.3806410140584475</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1251,16 +1251,16 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.42502459508637</v>
+        <v>0.4250245950860858</v>
       </c>
       <c r="D24">
-        <v>0.8458541551103735</v>
+        <v>0.8458541551100609</v>
       </c>
       <c r="E24">
-        <v>0.8153466003966798</v>
+        <v>0.8153466003966372</v>
       </c>
       <c r="F24">
-        <v>12.70658004067903</v>
+        <v>12.70658004067855</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1272,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>27.67620144789362</v>
+        <v>27.67620144789328</v>
       </c>
       <c r="K24">
-        <v>0.3806410140584262</v>
+        <v>0.3806410140584475</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1289,16 +1289,16 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.42502459508637</v>
+        <v>0.4250245950860858</v>
       </c>
       <c r="D25">
-        <v>0.8458541551103735</v>
+        <v>0.8458541551100609</v>
       </c>
       <c r="E25">
-        <v>0.8153466003966798</v>
+        <v>0.8153466003966372</v>
       </c>
       <c r="F25">
-        <v>12.70658004067903</v>
+        <v>12.70658004067855</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1310,10 +1310,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>27.67620144789362</v>
+        <v>27.67620144789328</v>
       </c>
       <c r="K25">
-        <v>0.3806410140584262</v>
+        <v>0.3806410140584475</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_15/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_15/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,19 +418,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.4871063533702795</v>
+        <v>0.4715438506210603</v>
       </c>
       <c r="D2">
-        <v>1.05093451635426</v>
+        <v>0.9796865883198791</v>
       </c>
       <c r="E2">
-        <v>0.941280561100541</v>
+        <v>0.9092204109151751</v>
       </c>
       <c r="F2">
-        <v>15.17600432158963</v>
+        <v>14.42533741665846</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0004732380585190655</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,16 +439,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>30.84371470793758</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4404546712557575</v>
+        <v>30.09136837754471</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.4251557123778369</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,19 +459,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.346595814482626</v>
+        <v>0.3404523035581661</v>
       </c>
       <c r="D3">
-        <v>0.6146095743590081</v>
+        <v>0.5854116233159345</v>
       </c>
       <c r="E3">
-        <v>0.6590947209194908</v>
+        <v>0.6468184421975423</v>
       </c>
       <c r="F3">
-        <v>9.787808241543161</v>
+        <v>9.490956692312722</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0005580753112124381</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,16 +480,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>23.37126088823163</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3068535641228323</v>
+        <v>23.03779313568413</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.3010530033337133</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2921559811718737</v>
+        <v>0.287711442177681</v>
       </c>
       <c r="D4">
-        <v>0.4729627685321844</v>
+        <v>0.4522953941142305</v>
       </c>
       <c r="E4">
-        <v>0.5521489414990839</v>
+        <v>0.5433456535480872</v>
       </c>
       <c r="F4">
-        <v>7.904086631928152</v>
+        <v>7.697013342857559</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0005959624916580602</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,16 +521,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>20.17932827752861</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2565791380550166</v>
+        <v>19.92826593438969</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.2524320046806281</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,19 +541,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.272962324097648</v>
+        <v>0.2690076607865279</v>
       </c>
       <c r="D5">
-        <v>0.4268563297027299</v>
+        <v>0.4087897415340365</v>
       </c>
       <c r="E5">
-        <v>0.5146945998337742</v>
+        <v>0.5068821476713126</v>
       </c>
       <c r="F5">
-        <v>7.269800355236725</v>
+        <v>7.089766937538883</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0006100485351069155</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,16 +562,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>19.01270599532216</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2390104632188716</v>
+        <v>18.78639864131122</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.2353334927993096</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,19 +582,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2699053141298862</v>
+        <v>0.266024528686998</v>
       </c>
       <c r="D6">
-        <v>0.4197023897659165</v>
+        <v>0.4020352207719071</v>
       </c>
       <c r="E6">
-        <v>0.5087402948914388</v>
+        <v>0.5010767891746184</v>
       </c>
       <c r="F6">
-        <v>7.17027569551766</v>
+        <v>6.994378582130565</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0006123301305656081</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,16 +603,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>18.82485648132268</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2362191881552143</v>
+        <v>18.6023325797413</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.2326128233852458</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,19 +623,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.291887537833361</v>
+        <v>0.2874501798954299</v>
       </c>
       <c r="D7">
-        <v>0.4723038884001198</v>
+        <v>0.4516740825831107</v>
       </c>
       <c r="E7">
-        <v>0.5516242528629078</v>
+        <v>0.5428355279262078</v>
       </c>
       <c r="F7">
-        <v>7.895104964556111</v>
+        <v>7.688423526850926</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0005961567317400718</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,16 +644,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>20.16316283180356</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2563328923054513</v>
+        <v>19.91245948036163</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.2521926749432666</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,19 +664,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.4250245950860858</v>
+        <v>0.4150565347742372</v>
       </c>
       <c r="D8">
-        <v>0.8458541551100609</v>
+        <v>0.7989681113553786</v>
       </c>
       <c r="E8">
-        <v>0.8153466003966372</v>
+        <v>0.7951117854165872</v>
       </c>
       <c r="F8">
-        <v>12.70658004067855</v>
+        <v>12.22021805484093</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0005083587685901555</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,16 +685,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>27.67620144789328</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3806410140584475</v>
+        <v>27.16812370576872</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.3710305410395662</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,19 +705,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.4250245950860858</v>
+        <v>0.4150565347742372</v>
       </c>
       <c r="D9">
-        <v>0.8458541551100609</v>
+        <v>0.7989681113553786</v>
       </c>
       <c r="E9">
-        <v>0.8153466003966372</v>
+        <v>0.7951117854165872</v>
       </c>
       <c r="F9">
-        <v>12.70658004067855</v>
+        <v>12.22021805484093</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0005083587685901555</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,16 +726,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>27.67620144789328</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3806410140584475</v>
+        <v>27.16812370576872</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.3710305410395662</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,19 +746,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.4250245950860858</v>
+        <v>0.4150565347742372</v>
       </c>
       <c r="D10">
-        <v>0.8458541551100609</v>
+        <v>0.7989681113553786</v>
       </c>
       <c r="E10">
-        <v>0.8153466003966372</v>
+        <v>0.7951117854165872</v>
       </c>
       <c r="F10">
-        <v>12.70658004067855</v>
+        <v>12.22021805484093</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0005083587685901555</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,16 +767,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>27.67620144789328</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.3806410140584475</v>
+        <v>27.16812370576872</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.3710305410395662</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,19 +787,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4250245950860858</v>
+        <v>0.4150565347742372</v>
       </c>
       <c r="D11">
-        <v>0.8458541551100609</v>
+        <v>0.7989681113553786</v>
       </c>
       <c r="E11">
-        <v>0.8153466003966372</v>
+        <v>0.7951117854165872</v>
       </c>
       <c r="F11">
-        <v>12.70658004067855</v>
+        <v>12.22021805484093</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0005083587685901555</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,16 +808,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>27.67620144789328</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.3806410140584475</v>
+        <v>27.16812370576872</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.3710305410395662</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,19 +828,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4250245950860858</v>
+        <v>0.4150565347742372</v>
       </c>
       <c r="D12">
-        <v>0.8458541551100609</v>
+        <v>0.7989681113553786</v>
       </c>
       <c r="E12">
-        <v>0.8153466003966372</v>
+        <v>0.7951117854165872</v>
       </c>
       <c r="F12">
-        <v>12.70658004067855</v>
+        <v>12.22021805484093</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0005083587685901555</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,16 +849,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>27.67620144789328</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0.3806410140584475</v>
+        <v>27.16812370576872</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.3710305410395662</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,19 +869,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4250245950860858</v>
+        <v>0.4150565347742372</v>
       </c>
       <c r="D13">
-        <v>0.8458541551100609</v>
+        <v>0.7989681113553786</v>
       </c>
       <c r="E13">
-        <v>0.8153466003966372</v>
+        <v>0.7951117854165872</v>
       </c>
       <c r="F13">
-        <v>12.70658004067855</v>
+        <v>12.22021805484093</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0005083587685901555</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,16 +890,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>27.67620144789328</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.3806410140584475</v>
+        <v>27.16812370576872</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.3710305410395662</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,19 +910,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4250245950860858</v>
+        <v>0.4150565347742372</v>
       </c>
       <c r="D14">
-        <v>0.8458541551100609</v>
+        <v>0.7989681113553786</v>
       </c>
       <c r="E14">
-        <v>0.8153466003966372</v>
+        <v>0.7951117854165872</v>
       </c>
       <c r="F14">
-        <v>12.70658004067855</v>
+        <v>12.22021805484093</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0005083587685901555</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,16 +931,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>27.67620144789328</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0.3806410140584475</v>
+        <v>27.16812370576872</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.3710305410395662</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,19 +951,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4250245950860858</v>
+        <v>0.4150565347742372</v>
       </c>
       <c r="D15">
-        <v>0.8458541551100609</v>
+        <v>0.7989681113553786</v>
       </c>
       <c r="E15">
-        <v>0.8153466003966372</v>
+        <v>0.7951117854165872</v>
       </c>
       <c r="F15">
-        <v>12.70658004067855</v>
+        <v>12.22021805484093</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0005083587685901555</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,16 +972,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>27.67620144789328</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.3806410140584475</v>
+        <v>27.16812370576872</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.3710305410395662</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,19 +992,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.4250245950860858</v>
+        <v>0.4150565347742372</v>
       </c>
       <c r="D16">
-        <v>0.8458541551100609</v>
+        <v>0.7989681113553786</v>
       </c>
       <c r="E16">
-        <v>0.8153466003966372</v>
+        <v>0.7951117854165872</v>
       </c>
       <c r="F16">
-        <v>12.70658004067855</v>
+        <v>12.22021805484093</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0005083587685901555</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,16 +1013,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>27.67620144789328</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.3806410140584475</v>
+        <v>27.16812370576872</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.3710305410395662</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,19 +1033,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.4250245950860858</v>
+        <v>0.4150565347742372</v>
       </c>
       <c r="D17">
-        <v>0.8458541551100609</v>
+        <v>0.7989681113553786</v>
       </c>
       <c r="E17">
-        <v>0.8153466003966372</v>
+        <v>0.7951117854165872</v>
       </c>
       <c r="F17">
-        <v>12.70658004067855</v>
+        <v>12.22021805484093</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0005083587685901555</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,16 +1054,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>27.67620144789328</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3806410140584475</v>
+        <v>27.16812370576872</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.3710305410395662</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,19 +1074,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.4250245950860858</v>
+        <v>0.4150565347742372</v>
       </c>
       <c r="D18">
-        <v>0.8458541551100609</v>
+        <v>0.7989681113553786</v>
       </c>
       <c r="E18">
-        <v>0.8153466003966372</v>
+        <v>0.7951117854165872</v>
       </c>
       <c r="F18">
-        <v>12.70658004067855</v>
+        <v>12.22021805484093</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0005083587685901555</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,16 +1095,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>27.67620144789328</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3806410140584475</v>
+        <v>27.16812370576872</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.3710305410395662</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,19 +1115,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.4250245950860858</v>
+        <v>0.4150565347742372</v>
       </c>
       <c r="D19">
-        <v>0.8458541551100609</v>
+        <v>0.7989681113553786</v>
       </c>
       <c r="E19">
-        <v>0.8153466003966372</v>
+        <v>0.7951117854165872</v>
       </c>
       <c r="F19">
-        <v>12.70658004067855</v>
+        <v>12.22021805484093</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0005083587685901555</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,16 +1136,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>27.67620144789328</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3806410140584475</v>
+        <v>27.16812370576872</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.3710305410395662</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,19 +1156,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.4250245950860858</v>
+        <v>0.4150565347742372</v>
       </c>
       <c r="D20">
-        <v>0.8458541551100609</v>
+        <v>0.7989681113553786</v>
       </c>
       <c r="E20">
-        <v>0.8153466003966372</v>
+        <v>0.7951117854165872</v>
       </c>
       <c r="F20">
-        <v>12.70658004067855</v>
+        <v>12.22021805484093</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0005083587685901555</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,16 +1177,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>27.67620144789328</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3806410140584475</v>
+        <v>27.16812370576872</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.3710305410395662</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4250245950860858</v>
+        <v>0.4150565347742372</v>
       </c>
       <c r="D21">
-        <v>0.8458541551100609</v>
+        <v>0.7989681113553786</v>
       </c>
       <c r="E21">
-        <v>0.8153466003966372</v>
+        <v>0.7951117854165872</v>
       </c>
       <c r="F21">
-        <v>12.70658004067855</v>
+        <v>12.22021805484093</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0005083587685901555</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,16 +1218,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>27.67620144789328</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0.3806410140584475</v>
+        <v>27.16812370576872</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.3710305410395662</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,19 +1238,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4250245950860858</v>
+        <v>0.4150565347742372</v>
       </c>
       <c r="D22">
-        <v>0.8458541551100609</v>
+        <v>0.7989681113553786</v>
       </c>
       <c r="E22">
-        <v>0.8153466003966372</v>
+        <v>0.7951117854165872</v>
       </c>
       <c r="F22">
-        <v>12.70658004067855</v>
+        <v>12.22021805484093</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0005083587685901555</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,16 +1259,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>27.67620144789328</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0.3806410140584475</v>
+        <v>27.16812370576872</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.3710305410395662</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,19 +1279,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4250245950860858</v>
+        <v>0.4150565347742372</v>
       </c>
       <c r="D23">
-        <v>0.8458541551100609</v>
+        <v>0.7989681113553786</v>
       </c>
       <c r="E23">
-        <v>0.8153466003966372</v>
+        <v>0.7951117854165872</v>
       </c>
       <c r="F23">
-        <v>12.70658004067855</v>
+        <v>12.22021805484093</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0005083587685901555</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,16 +1300,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>27.67620144789328</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0.3806410140584475</v>
+        <v>27.16812370576872</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.3710305410395662</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,19 +1320,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.4250245950860858</v>
+        <v>0.4150565347742372</v>
       </c>
       <c r="D24">
-        <v>0.8458541551100609</v>
+        <v>0.7989681113553786</v>
       </c>
       <c r="E24">
-        <v>0.8153466003966372</v>
+        <v>0.7951117854165872</v>
       </c>
       <c r="F24">
-        <v>12.70658004067855</v>
+        <v>12.22021805484093</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0005083587685901555</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,16 +1341,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>27.67620144789328</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3806410140584475</v>
+        <v>27.16812370576872</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.3710305410395662</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,19 +1361,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.4250245950860858</v>
+        <v>0.4150565347742372</v>
       </c>
       <c r="D25">
-        <v>0.8458541551100609</v>
+        <v>0.7989681113553786</v>
       </c>
       <c r="E25">
-        <v>0.8153466003966372</v>
+        <v>0.7951117854165872</v>
       </c>
       <c r="F25">
-        <v>12.70658004067855</v>
+        <v>12.22021805484093</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0005083587685901555</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,12 +1382,15 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>27.67620144789328</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3806410140584475</v>
+        <v>27.16812370576872</v>
       </c>
       <c r="L25">
+        <v>0.3710305410395662</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_15/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_15/res_line/pl_mw.xlsx
@@ -424,158 +424,1124 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.01090739865387746</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.01663880330069389</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.1484964661281118</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.1815056639348924</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.2132118491707544</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.139525348787501</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.1352111441262878</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.3877247023658725</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.4375454878220211</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>32.70053770332652</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.6971461072302247</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.01315576744057978</v>
+      </c>
+      <c r="D3">
+        <v>0.01841487844332335</v>
+      </c>
+      <c r="E3">
+        <v>0.1276711548743954</v>
+      </c>
+      <c r="F3">
+        <v>0.1746559643695704</v>
+      </c>
+      <c r="G3">
+        <v>0.1851207852204269</v>
+      </c>
+      <c r="H3">
+        <v>0.1416856591351845</v>
+      </c>
+      <c r="I3">
+        <v>0.1284394815490835</v>
+      </c>
+      <c r="J3">
+        <v>0.3295911612865723</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0.3738285861351045</v>
+      </c>
+      <c r="M3">
+        <v>28.05314824037146</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0.6412882555227242</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.01521404805334825</v>
+      </c>
+      <c r="D4">
+        <v>0.01993349293058699</v>
+      </c>
+      <c r="E4">
+        <v>0.1161981918142168</v>
+      </c>
+      <c r="F4">
+        <v>0.1758798155006431</v>
+      </c>
+      <c r="G4">
+        <v>0.172291002280339</v>
+      </c>
+      <c r="H4">
+        <v>0.1451661864167377</v>
+      </c>
+      <c r="I4">
+        <v>0.1281586712439449</v>
+      </c>
+      <c r="J4">
+        <v>0.2965292542002942</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0.3374161284256445</v>
+      </c>
+      <c r="M4">
+        <v>25.2852534349534</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0.6208612083884617</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.01619782102918421</v>
+      </c>
+      <c r="D5">
+        <v>0.02064427347875863</v>
+      </c>
+      <c r="E5">
+        <v>0.1117918680295489</v>
+      </c>
+      <c r="F5">
+        <v>0.177554685334254</v>
+      </c>
+      <c r="G5">
+        <v>0.1680125825997791</v>
+      </c>
+      <c r="H5">
+        <v>0.1470587094679061</v>
+      </c>
+      <c r="I5">
+        <v>0.1288835435948279</v>
+      </c>
+      <c r="J5">
+        <v>0.2835886417072118</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0.3231252602869716</v>
+      </c>
+      <c r="M5">
+        <v>24.17387312085538</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0.6155413258983913</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.01636928559251771</v>
+      </c>
+      <c r="D6">
+        <v>0.02076745138408143</v>
+      </c>
+      <c r="E6">
+        <v>0.1110748918434084</v>
+      </c>
+      <c r="F6">
+        <v>0.1778989287098547</v>
+      </c>
+      <c r="G6">
+        <v>0.1673553359832667</v>
+      </c>
+      <c r="H6">
+        <v>0.147399844532238</v>
+      </c>
+      <c r="I6">
+        <v>0.129051084273474</v>
+      </c>
+      <c r="J6">
+        <v>0.2814687325916907</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0.3207819464668233</v>
+      </c>
+      <c r="M6">
+        <v>23.99020321139608</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0.6148268564037949</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.01522675833331988</v>
+      </c>
+      <c r="D7">
+        <v>0.0199427249562163</v>
+      </c>
+      <c r="E7">
+        <v>0.1161377492766746</v>
+      </c>
+      <c r="F7">
+        <v>0.1758978668577669</v>
+      </c>
+      <c r="G7">
+        <v>0.172229648754687</v>
+      </c>
+      <c r="H7">
+        <v>0.1451898704682506</v>
+      </c>
+      <c r="I7">
+        <v>0.1281652105790307</v>
+      </c>
+      <c r="J7">
+        <v>0.2963527286427166</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0.3372213366784536</v>
+      </c>
+      <c r="M7">
+        <v>25.27020374966509</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0.6207778759902283</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.01152488621291781</v>
+      </c>
+      <c r="D8">
+        <v>0.01715175553518122</v>
+      </c>
+      <c r="E8">
+        <v>0.1410018159873445</v>
+      </c>
+      <c r="F8">
+        <v>0.1778914800322013</v>
+      </c>
+      <c r="G8">
+        <v>0.2025022609791449</v>
+      </c>
+      <c r="H8">
+        <v>0.1397785145393016</v>
+      </c>
+      <c r="I8">
+        <v>0.1319816612688598</v>
+      </c>
+      <c r="J8">
+        <v>0.3670465709574273</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0.4149230718802812</v>
+      </c>
+      <c r="M8">
+        <v>31.07699836487444</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0.6746875366326748</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0.01117356467651121</v>
+      </c>
+      <c r="D9">
+        <v>0.01602873036005192</v>
+      </c>
+      <c r="E9">
+        <v>0.203915272296129</v>
+      </c>
+      <c r="F9">
+        <v>0.2358894891550634</v>
+      </c>
+      <c r="G9">
+        <v>0.3062673039801922</v>
+      </c>
+      <c r="H9">
+        <v>0.1501521291075534</v>
+      </c>
+      <c r="I9">
+        <v>0.1781137953856096</v>
+      </c>
+      <c r="J9">
+        <v>0.5344332228108328</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0.5969488819160489</v>
+      </c>
+      <c r="M9">
+        <v>43.44454627593007</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0.9184403505743433</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.01826438801053598</v>
+      </c>
+      <c r="D10">
+        <v>0.01982886845614118</v>
+      </c>
+      <c r="E10">
+        <v>0.2664825291885862</v>
+      </c>
+      <c r="F10">
+        <v>0.3331208443213285</v>
+      </c>
+      <c r="G10">
+        <v>0.427851846147064</v>
+      </c>
+      <c r="H10">
+        <v>0.1781432210868132</v>
+      </c>
+      <c r="I10">
+        <v>0.2510640247693203</v>
+      </c>
+      <c r="J10">
+        <v>0.6912040030897373</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0.7656311493537373</v>
+      </c>
+      <c r="M10">
+        <v>53.74697941657649</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>1.236342759817063</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0.02431583418736949</v>
+      </c>
+      <c r="D11">
+        <v>0.02334407150244999</v>
+      </c>
+      <c r="E11">
+        <v>0.3015433546363582</v>
+      </c>
+      <c r="F11">
+        <v>0.3972834214832588</v>
+      </c>
+      <c r="G11">
+        <v>0.4997790713830312</v>
+      </c>
+      <c r="H11">
+        <v>0.1980874199774405</v>
+      </c>
+      <c r="I11">
+        <v>0.2985026346388935</v>
+      </c>
+      <c r="J11">
+        <v>0.7762743446133555</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0.8566248297198769</v>
+      </c>
+      <c r="M11">
+        <v>58.93958795558996</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>1.431311202013063</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0.0271947212842143</v>
+      </c>
+      <c r="D12">
+        <v>0.02504814008511147</v>
+      </c>
+      <c r="E12">
+        <v>0.3162197317667079</v>
+      </c>
+      <c r="F12">
+        <v>0.4255893138304714</v>
+      </c>
+      <c r="G12">
+        <v>0.5303592241424582</v>
+      </c>
+      <c r="H12">
+        <v>0.207067392913487</v>
+      </c>
+      <c r="I12">
+        <v>0.3193328142884369</v>
+      </c>
+      <c r="J12">
+        <v>0.8114134483627566</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0.8941183891037667</v>
+      </c>
+      <c r="M12">
+        <v>61.01410961921431</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>1.515223743701767</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0.02654448388354425</v>
+      </c>
+      <c r="D13">
+        <v>0.02466191511338423</v>
+      </c>
+      <c r="E13">
+        <v>0.3129864364250423</v>
+      </c>
+      <c r="F13">
+        <v>0.4192894769141304</v>
+      </c>
+      <c r="G13">
+        <v>0.5236034702459875</v>
+      </c>
+      <c r="H13">
+        <v>0.2050612856289291</v>
+      </c>
+      <c r="I13">
+        <v>0.3147010733314062</v>
+      </c>
+      <c r="J13">
+        <v>0.8036940598497182</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0.8858860735875567</v>
+      </c>
+      <c r="M13">
+        <v>60.56171125495342</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>1.496640434865782</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0.02453948270712303</v>
+      </c>
+      <c r="D14">
+        <v>0.02347587289210651</v>
+      </c>
+      <c r="E14">
+        <v>0.3027191734713099</v>
+      </c>
+      <c r="F14">
+        <v>0.3995229615158635</v>
+      </c>
+      <c r="G14">
+        <v>0.5022205521222531</v>
+      </c>
+      <c r="H14">
+        <v>0.1987945854434372</v>
+      </c>
+      <c r="I14">
+        <v>0.3001525754644021</v>
+      </c>
+      <c r="J14">
+        <v>0.7790991562333716</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0.8596407984706929</v>
+      </c>
+      <c r="M14">
+        <v>59.10781238741652</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>1.437990719857225</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0.02339503460599701</v>
+      </c>
+      <c r="D15">
+        <v>0.0228025774202294</v>
+      </c>
+      <c r="E15">
+        <v>0.2966303801050998</v>
+      </c>
+      <c r="F15">
+        <v>0.3879821154348235</v>
+      </c>
+      <c r="G15">
+        <v>0.4895953875706027</v>
+      </c>
+      <c r="H15">
+        <v>0.1951571446720664</v>
+      </c>
+      <c r="I15">
+        <v>0.2916463508064595</v>
+      </c>
+      <c r="J15">
+        <v>0.7644526169340935</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0.8439994373723039</v>
+      </c>
+      <c r="M15">
+        <v>58.23275276678515</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>1.40348974222556</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0.01793904873159136</v>
+      </c>
+      <c r="D16">
+        <v>0.01964358330124583</v>
+      </c>
+      <c r="E16">
+        <v>0.2643570156865707</v>
+      </c>
+      <c r="F16">
+        <v>0.329413408227424</v>
+      </c>
+      <c r="G16">
+        <v>0.4235563472497859</v>
+      </c>
+      <c r="H16">
+        <v>0.1770139447107368</v>
+      </c>
+      <c r="I16">
+        <v>0.2483111238298079</v>
+      </c>
+      <c r="J16">
+        <v>0.6859906116102934</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0.7600436272615667</v>
+      </c>
+      <c r="M16">
+        <v>53.42041218339818</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>1.224825243238087</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0.01541631506719909</v>
+      </c>
+      <c r="D17">
+        <v>0.0182274693147555</v>
+      </c>
+      <c r="E17">
+        <v>0.246498336668985</v>
+      </c>
+      <c r="F17">
+        <v>0.2992339643496891</v>
+      </c>
+      <c r="G17">
+        <v>0.3878395129054724</v>
+      </c>
+      <c r="H17">
+        <v>0.1679522662586095</v>
+      </c>
+      <c r="I17">
+        <v>0.2258384500015147</v>
+      </c>
+      <c r="J17">
+        <v>0.6419049121634544</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0.7127381254813372</v>
+      </c>
+      <c r="M17">
+        <v>50.6175008077326</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>1.129726994125349</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0.01421665378093806</v>
+      </c>
+      <c r="D18">
+        <v>0.01757170854617485</v>
+      </c>
+      <c r="E18">
+        <v>0.2368111021894279</v>
+      </c>
+      <c r="F18">
+        <v>0.2836603707724805</v>
+      </c>
+      <c r="G18">
+        <v>0.3687843196824758</v>
+      </c>
+      <c r="H18">
+        <v>0.1633878817829668</v>
+      </c>
+      <c r="I18">
+        <v>0.2141891671430365</v>
+      </c>
+      <c r="J18">
+        <v>0.6177659903097208</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0.6867915875418618</v>
+      </c>
+      <c r="M18">
+        <v>49.05010373956259</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>1.079542145124861</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0.01384959281958942</v>
+      </c>
+      <c r="D19">
+        <v>0.01737436280679816</v>
+      </c>
+      <c r="E19">
+        <v>0.2336215326829532</v>
+      </c>
+      <c r="F19">
+        <v>0.2786678728613907</v>
+      </c>
+      <c r="G19">
+        <v>0.3625663277059488</v>
+      </c>
+      <c r="H19">
+        <v>0.161944722984515</v>
+      </c>
+      <c r="I19">
+        <v>0.2104454907997422</v>
+      </c>
+      <c r="J19">
+        <v>0.6097810407942745</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0.678201376055938</v>
+      </c>
+      <c r="M19">
+        <v>48.526305193025</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>1.063260432886011</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0.01565784375750212</v>
+      </c>
+      <c r="D20">
+        <v>0.01836114386415844</v>
+      </c>
+      <c r="E20">
+        <v>0.2483364176746363</v>
+      </c>
+      <c r="F20">
+        <v>0.3022554205977812</v>
+      </c>
+      <c r="G20">
+        <v>0.3914821951976677</v>
+      </c>
+      <c r="H20">
+        <v>0.1688476433972141</v>
+      </c>
+      <c r="I20">
+        <v>0.2280939731271765</v>
+      </c>
+      <c r="J20">
+        <v>0.6464665924750932</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0.7176377595991994</v>
+      </c>
+      <c r="M20">
+        <v>50.91104531379352</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>1.1393671206487</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0.02511047199678629</v>
+      </c>
+      <c r="D21">
+        <v>0.02381284137341311</v>
+      </c>
+      <c r="E21">
+        <v>0.3056919695361842</v>
+      </c>
+      <c r="F21">
+        <v>0.4052077349659058</v>
+      </c>
+      <c r="G21">
+        <v>0.5084002489757893</v>
+      </c>
+      <c r="H21">
+        <v>0.2005923311113662</v>
+      </c>
+      <c r="I21">
+        <v>0.3043392260331501</v>
+      </c>
+      <c r="J21">
+        <v>0.7862334764032965</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0.8672564140741628</v>
+      </c>
+      <c r="M21">
+        <v>59.53153251917473</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>1.454913373506884</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0.03489534342654821</v>
+      </c>
+      <c r="D22">
+        <v>0.02966828368467844</v>
+      </c>
+      <c r="E22">
+        <v>0.3517947757217428</v>
+      </c>
+      <c r="F22">
+        <v>0.4969749612105332</v>
+      </c>
+      <c r="G22">
+        <v>0.6052227473542615</v>
+      </c>
+      <c r="H22">
+        <v>0.2300368878523784</v>
+      </c>
+      <c r="I22">
+        <v>0.3716724026670235</v>
+      </c>
+      <c r="J22">
+        <v>0.8955917323111464</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0.9837438621826351</v>
+      </c>
+      <c r="M22">
+        <v>65.83203581035042</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>1.722660630761737</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0.02924919907333035</v>
+      </c>
+      <c r="D23">
+        <v>0.0262729465217042</v>
+      </c>
+      <c r="E23">
+        <v>0.3261660791834373</v>
+      </c>
+      <c r="F23">
+        <v>0.4451799520236932</v>
+      </c>
+      <c r="G23">
+        <v>0.5511996283376135</v>
+      </c>
+      <c r="H23">
+        <v>0.2133301527225768</v>
+      </c>
+      <c r="I23">
+        <v>0.333721830156712</v>
+      </c>
+      <c r="J23">
+        <v>0.8350853177687014</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0.9193486112620093</v>
+      </c>
+      <c r="M23">
+        <v>62.39002257965586</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>1.572701646839988</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0.0155478797074835</v>
+      </c>
+      <c r="D24">
+        <v>0.01830022390131703</v>
+      </c>
+      <c r="E24">
+        <v>0.2475036444541558</v>
+      </c>
+      <c r="F24">
+        <v>0.3008839613943763</v>
+      </c>
+      <c r="G24">
+        <v>0.3898307956306155</v>
+      </c>
+      <c r="H24">
+        <v>0.1684408595063331</v>
+      </c>
+      <c r="I24">
+        <v>0.2270703479653697</v>
+      </c>
+      <c r="J24">
+        <v>0.644400561019097</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0.7154188062907849</v>
+      </c>
+      <c r="M24">
+        <v>50.77819902134269</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>1.134995028477448</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0.01027225423990075</v>
+      </c>
+      <c r="D25">
+        <v>0.01570620225566088</v>
+      </c>
+      <c r="E25">
+        <v>0.1847512862434613</v>
+      </c>
+      <c r="F25">
+        <v>0.212594195838463</v>
+      </c>
+      <c r="G25">
+        <v>0.2719053284186899</v>
+      </c>
+      <c r="H25">
+        <v>0.1444601398723364</v>
+      </c>
+      <c r="I25">
+        <v>0.160196569546315</v>
+      </c>
+      <c r="J25">
+        <v>0.4847457812314389</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0.5431567819244094</v>
+      </c>
+      <c r="M25">
+        <v>39.94318751720965</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0.8331197744959695</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_15/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_15/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.01090739865387746</v>
+        <v>0.1465433017255542</v>
       </c>
       <c r="D2">
-        <v>0.01663880330069389</v>
+        <v>0.1262258172897148</v>
       </c>
       <c r="E2">
-        <v>0.1484964661281118</v>
+        <v>0.1372242642186237</v>
       </c>
       <c r="F2">
-        <v>0.1815056639348924</v>
+        <v>1.049929521006806</v>
       </c>
       <c r="G2">
-        <v>0.2132118491707544</v>
+        <v>0.593079604595367</v>
       </c>
       <c r="H2">
-        <v>0.139525348787501</v>
+        <v>0.7286482229212794</v>
       </c>
       <c r="I2">
-        <v>0.1352111441262878</v>
+        <v>0.7286526594982874</v>
       </c>
       <c r="J2">
-        <v>0.3877247023658725</v>
+        <v>0.2105825628211022</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4375454878220211</v>
+        <v>0.2471504961990263</v>
       </c>
       <c r="M2">
-        <v>32.70053770332652</v>
+        <v>10.99935363126821</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.6971461072302247</v>
+        <v>2.624169771381901</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01315576744057978</v>
+        <v>0.1512743028483996</v>
       </c>
       <c r="D3">
-        <v>0.01841487844332335</v>
+        <v>0.1294733883543273</v>
       </c>
       <c r="E3">
-        <v>0.1276711548743954</v>
+        <v>0.1358730885044181</v>
       </c>
       <c r="F3">
-        <v>0.1746559643695704</v>
+        <v>1.081708089017781</v>
       </c>
       <c r="G3">
-        <v>0.1851207852204269</v>
+        <v>0.6098825884774826</v>
       </c>
       <c r="H3">
-        <v>0.1416856591351845</v>
+        <v>0.744692625321477</v>
       </c>
       <c r="I3">
-        <v>0.1284394815490835</v>
+        <v>0.7506023444175973</v>
       </c>
       <c r="J3">
-        <v>0.3295911612865723</v>
+        <v>0.2012473714441541</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3738285861351045</v>
+        <v>0.2363310134679182</v>
       </c>
       <c r="M3">
-        <v>28.05314824037146</v>
+        <v>9.672548105483997</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.6412882555227242</v>
+        <v>2.692913045803508</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01521404805334825</v>
+        <v>0.1543393044362844</v>
       </c>
       <c r="D4">
-        <v>0.01993349293058699</v>
+        <v>0.1315803123318169</v>
       </c>
       <c r="E4">
-        <v>0.1161981918142168</v>
+        <v>0.1351913100944913</v>
       </c>
       <c r="F4">
-        <v>0.1758798155006431</v>
+        <v>1.10252289669214</v>
       </c>
       <c r="G4">
-        <v>0.172291002280339</v>
+        <v>0.6211072812141225</v>
       </c>
       <c r="H4">
-        <v>0.1451661864167377</v>
+        <v>0.7551910564542723</v>
       </c>
       <c r="I4">
-        <v>0.1281586712439449</v>
+        <v>0.7649978706321505</v>
       </c>
       <c r="J4">
-        <v>0.2965292542002942</v>
+        <v>0.1957148321517082</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3374161284256445</v>
+        <v>0.2298975661908145</v>
       </c>
       <c r="M4">
-        <v>25.2852534349534</v>
+        <v>8.854117297462267</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.6208612083884617</v>
+        <v>2.738387094076174</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01619782102918421</v>
+        <v>0.1556282079298121</v>
       </c>
       <c r="D5">
-        <v>0.02064427347875863</v>
+        <v>0.1324670792130256</v>
       </c>
       <c r="E5">
-        <v>0.1117918680295489</v>
+        <v>0.1349500924337335</v>
       </c>
       <c r="F5">
-        <v>0.177554685334254</v>
+        <v>1.111329145802284</v>
       </c>
       <c r="G5">
-        <v>0.1680125825997791</v>
+        <v>0.6259066778358573</v>
       </c>
       <c r="H5">
-        <v>0.1470587094679061</v>
+        <v>0.7596307204188122</v>
       </c>
       <c r="I5">
-        <v>0.1288835435948279</v>
+        <v>0.7710925688753889</v>
       </c>
       <c r="J5">
-        <v>0.2835886417072118</v>
+        <v>0.1935093440413738</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3231252602869716</v>
+        <v>0.2273276267139721</v>
       </c>
       <c r="M5">
-        <v>24.17387312085538</v>
+        <v>8.519638314464089</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.6155413258983913</v>
+        <v>2.757730306520671</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01636928559251771</v>
+        <v>0.1558446276446155</v>
       </c>
       <c r="D6">
-        <v>0.02076745138408143</v>
+        <v>0.1326160219496657</v>
       </c>
       <c r="E6">
-        <v>0.1110748918434084</v>
+        <v>0.1349122337891373</v>
       </c>
       <c r="F6">
-        <v>0.1778989287098547</v>
+        <v>1.112810885721924</v>
       </c>
       <c r="G6">
-        <v>0.1673553359832667</v>
+        <v>0.6267171311861119</v>
       </c>
       <c r="H6">
-        <v>0.147399844532238</v>
+        <v>0.760377638883817</v>
       </c>
       <c r="I6">
-        <v>0.129051084273474</v>
+        <v>0.7721183104135285</v>
       </c>
       <c r="J6">
-        <v>0.2814687325916907</v>
+        <v>0.1931460585754934</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3207819464668233</v>
+        <v>0.2269039874870629</v>
       </c>
       <c r="M6">
-        <v>23.99020321139608</v>
+        <v>8.464039895500775</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.6148268564037949</v>
+        <v>2.760991023950496</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01522675833331988</v>
+        <v>0.154356526022486</v>
       </c>
       <c r="D7">
-        <v>0.0199427249562163</v>
+        <v>0.1315921577643984</v>
       </c>
       <c r="E7">
-        <v>0.1161377492766746</v>
+        <v>0.1351879094298098</v>
       </c>
       <c r="F7">
-        <v>0.1758978668577669</v>
+        <v>1.102640353424846</v>
       </c>
       <c r="G7">
-        <v>0.172229648754687</v>
+        <v>0.6211710994772872</v>
       </c>
       <c r="H7">
-        <v>0.1451898704682506</v>
+        <v>0.7552502791865905</v>
       </c>
       <c r="I7">
-        <v>0.1281652105790307</v>
+        <v>0.7650791443790474</v>
       </c>
       <c r="J7">
-        <v>0.2963527286427166</v>
+        <v>0.1956848908350537</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3372213366784536</v>
+        <v>0.2298626988537507</v>
       </c>
       <c r="M7">
-        <v>25.27020374966509</v>
+        <v>8.849610307620992</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.6207778759902283</v>
+        <v>2.738644686745928</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.01152488621291781</v>
+        <v>0.1481410827165135</v>
       </c>
       <c r="D8">
-        <v>0.01715175553518122</v>
+        <v>0.1273220187163204</v>
       </c>
       <c r="E8">
-        <v>0.1410018159873445</v>
+        <v>0.136727342354952</v>
       </c>
       <c r="F8">
-        <v>0.1778914800322013</v>
+        <v>1.060614297525248</v>
       </c>
       <c r="G8">
-        <v>0.2025022609791449</v>
+        <v>0.5986831098797438</v>
       </c>
       <c r="H8">
-        <v>0.1397785145393016</v>
+        <v>0.7340452763284091</v>
       </c>
       <c r="I8">
-        <v>0.1319816612688598</v>
+        <v>0.7360287982724572</v>
       </c>
       <c r="J8">
-        <v>0.3670465709574273</v>
+        <v>0.2073217653236128</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4149230718802812</v>
+        <v>0.2433757719745699</v>
       </c>
       <c r="M8">
-        <v>31.07699836487444</v>
+        <v>10.54264252438145</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.6746875366326748</v>
+        <v>2.647189341890936</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.01117356467651121</v>
+        <v>0.1372403487916785</v>
       </c>
       <c r="D9">
-        <v>0.01602873036005192</v>
+        <v>0.1198536471905385</v>
       </c>
       <c r="E9">
-        <v>0.203915272296129</v>
+        <v>0.1409466561378352</v>
       </c>
       <c r="F9">
-        <v>0.2358894891550634</v>
+        <v>0.9886933013169852</v>
       </c>
       <c r="G9">
-        <v>0.3062673039801922</v>
+        <v>0.5619188535974189</v>
       </c>
       <c r="H9">
-        <v>0.1501521291075534</v>
+        <v>0.6976520639155837</v>
       </c>
       <c r="I9">
-        <v>0.1781137953856096</v>
+        <v>0.6864596482817333</v>
       </c>
       <c r="J9">
-        <v>0.5344332228108328</v>
+        <v>0.2317753936245879</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5969488819160489</v>
+        <v>0.2715899386168275</v>
       </c>
       <c r="M9">
-        <v>43.44454627593007</v>
+        <v>13.83380611208622</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.9184403505743433</v>
+        <v>2.494153857113247</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.01826438801053598</v>
+        <v>0.1300400915553155</v>
       </c>
       <c r="D10">
-        <v>0.01982886845614118</v>
+        <v>0.114931752576247</v>
       </c>
       <c r="E10">
-        <v>0.2664825291885862</v>
+        <v>0.1448191452812821</v>
       </c>
       <c r="F10">
-        <v>0.3331208443213285</v>
+        <v>0.9424622975217076</v>
       </c>
       <c r="G10">
-        <v>0.427851846147064</v>
+        <v>0.5395628461749595</v>
       </c>
       <c r="H10">
-        <v>0.1781432210868132</v>
+        <v>0.6741527246731067</v>
       </c>
       <c r="I10">
-        <v>0.2510640247693203</v>
+        <v>0.6547044702664202</v>
       </c>
       <c r="J10">
-        <v>0.6912040030897373</v>
+        <v>0.2508172733684262</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.7656311493537373</v>
+        <v>0.2934427726970199</v>
       </c>
       <c r="M10">
-        <v>53.74697941657649</v>
+        <v>16.23616699741677</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.236342759817063</v>
+        <v>2.398303039083146</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.02431583418736949</v>
+        <v>0.1269452724409419</v>
       </c>
       <c r="D11">
-        <v>0.02334407150244999</v>
+        <v>0.1128183102810709</v>
       </c>
       <c r="E11">
-        <v>0.3015433546363582</v>
+        <v>0.1467581589733129</v>
       </c>
       <c r="F11">
-        <v>0.3972834214832588</v>
+        <v>0.9229120762650069</v>
       </c>
       <c r="G11">
-        <v>0.4997790713830312</v>
+        <v>0.530443158372492</v>
       </c>
       <c r="H11">
-        <v>0.1980874199774405</v>
+        <v>0.6641817266102237</v>
       </c>
       <c r="I11">
-        <v>0.2985026346388935</v>
+        <v>0.6413040351384467</v>
       </c>
       <c r="J11">
-        <v>0.7762743446133555</v>
+        <v>0.2597325770297516</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.8566248297198769</v>
+        <v>0.3036471109371917</v>
       </c>
       <c r="M11">
-        <v>58.93958795558996</v>
+        <v>17.32618580609409</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.431311202013063</v>
+        <v>2.358417832088008</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.0271947212842143</v>
+        <v>0.1257997705094809</v>
       </c>
       <c r="D12">
-        <v>0.02504814008511147</v>
+        <v>0.1120363180587916</v>
       </c>
       <c r="E12">
-        <v>0.3162197317667079</v>
+        <v>0.1475187522745358</v>
       </c>
       <c r="F12">
-        <v>0.4255893138304714</v>
+        <v>0.915725740366625</v>
       </c>
       <c r="G12">
-        <v>0.5303592241424582</v>
+        <v>0.5271441430749064</v>
       </c>
       <c r="H12">
-        <v>0.207067392913487</v>
+        <v>0.6605107342893746</v>
       </c>
       <c r="I12">
-        <v>0.3193328142884369</v>
+        <v>0.6363827498063195</v>
       </c>
       <c r="J12">
-        <v>0.8114134483627566</v>
+        <v>0.2631466057509471</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.8941183891037667</v>
+        <v>0.3075507326683748</v>
       </c>
       <c r="M12">
-        <v>61.01410961921431</v>
+        <v>17.73858496748267</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.515223743701767</v>
+        <v>2.343858978400021</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.02654448388354425</v>
+        <v>0.1260452914076851</v>
       </c>
       <c r="D13">
-        <v>0.02466191511338423</v>
+        <v>0.1122039148211726</v>
       </c>
       <c r="E13">
-        <v>0.3129864364250423</v>
+        <v>0.1473537602851636</v>
       </c>
       <c r="F13">
-        <v>0.4192894769141304</v>
+        <v>0.9172637347953341</v>
       </c>
       <c r="G13">
-        <v>0.5236034702459875</v>
+        <v>0.5278477228691258</v>
       </c>
       <c r="H13">
-        <v>0.2050612856289291</v>
+        <v>0.6612966639953584</v>
       </c>
       <c r="I13">
-        <v>0.3147010733314062</v>
+        <v>0.6374357782161937</v>
       </c>
       <c r="J13">
-        <v>0.8036940598497182</v>
+        <v>0.2624096170303574</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.8858860735875567</v>
+        <v>0.3067082364977693</v>
       </c>
       <c r="M13">
-        <v>60.56171125495342</v>
+        <v>17.64978308985417</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.496640434865782</v>
+        <v>2.346970093799086</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.02453948270712303</v>
+        <v>0.1268504987179782</v>
       </c>
       <c r="D14">
-        <v>0.02347587289210651</v>
+        <v>0.1127536065365433</v>
       </c>
       <c r="E14">
-        <v>0.3027191734713099</v>
+        <v>0.1468202008749486</v>
       </c>
       <c r="F14">
-        <v>0.3995229615158635</v>
+        <v>0.9223164817277478</v>
       </c>
       <c r="G14">
-        <v>0.5022205521222531</v>
+        <v>0.5301686321040506</v>
       </c>
       <c r="H14">
-        <v>0.1987945854434372</v>
+        <v>0.6638776031559672</v>
       </c>
       <c r="I14">
-        <v>0.3001525754644021</v>
+        <v>0.6408960716931027</v>
       </c>
       <c r="J14">
-        <v>0.7790991562333716</v>
+        <v>0.2600126801648202</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.8596407984706929</v>
+        <v>0.3039674639455825</v>
       </c>
       <c r="M14">
-        <v>59.10781238741652</v>
+        <v>17.36012125290398</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.437990719857225</v>
+        <v>2.357209088815864</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.02339503460599701</v>
+        <v>0.1273471686258603</v>
       </c>
       <c r="D15">
-        <v>0.0228025774202294</v>
+        <v>0.1130927028097659</v>
       </c>
       <c r="E15">
-        <v>0.2966303801050998</v>
+        <v>0.1464968344996436</v>
       </c>
       <c r="F15">
-        <v>0.3879821154348235</v>
+        <v>0.9254398031082758</v>
       </c>
       <c r="G15">
-        <v>0.4895953875706027</v>
+        <v>0.5316104667894734</v>
       </c>
       <c r="H15">
-        <v>0.1951571446720664</v>
+        <v>0.6654721944853748</v>
       </c>
       <c r="I15">
-        <v>0.2916463508064595</v>
+        <v>0.6430356344726604</v>
       </c>
       <c r="J15">
-        <v>0.7644526169340935</v>
+        <v>0.2585494847836856</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.8439994373723039</v>
+        <v>0.3022938493841991</v>
       </c>
       <c r="M15">
-        <v>58.23275276678515</v>
+        <v>17.18264842565225</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.40348974222556</v>
+        <v>2.363552023817931</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.01793904873159136</v>
+        <v>0.1302460193165231</v>
       </c>
       <c r="D16">
-        <v>0.01964358330124583</v>
+        <v>0.1150724201841626</v>
       </c>
       <c r="E16">
-        <v>0.2643570156865707</v>
+        <v>0.1446960651059825</v>
       </c>
       <c r="F16">
-        <v>0.329413408227424</v>
+        <v>0.9437700838129146</v>
       </c>
       <c r="G16">
-        <v>0.4235563472497859</v>
+        <v>0.5401802608582358</v>
       </c>
       <c r="H16">
-        <v>0.1770139447107368</v>
+        <v>0.6748189415011296</v>
       </c>
       <c r="I16">
-        <v>0.2483111238298079</v>
+        <v>0.6556014964312915</v>
       </c>
       <c r="J16">
-        <v>0.6859906116102934</v>
+        <v>0.2502398646578712</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.7600436272615667</v>
+        <v>0.2927813283141631</v>
       </c>
       <c r="M16">
-        <v>53.42041218339818</v>
+        <v>16.16487806119903</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.224825243238087</v>
+        <v>2.400985311250224</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.01541631506719909</v>
+        <v>0.1320709583660573</v>
       </c>
       <c r="D17">
-        <v>0.0182274693147555</v>
+        <v>0.1163192580148333</v>
       </c>
       <c r="E17">
-        <v>0.246498336668985</v>
+        <v>0.1436373581842787</v>
       </c>
       <c r="F17">
-        <v>0.2992339643496891</v>
+        <v>0.9553971476961181</v>
       </c>
       <c r="G17">
-        <v>0.3878395129054724</v>
+        <v>0.5457089299962306</v>
       </c>
       <c r="H17">
-        <v>0.1679522662586095</v>
+        <v>0.6807380199241635</v>
       </c>
       <c r="I17">
-        <v>0.2258384500015147</v>
+        <v>0.6635799697197591</v>
       </c>
       <c r="J17">
-        <v>0.6419049121634544</v>
+        <v>0.2452081089695071</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.7127381254813372</v>
+        <v>0.2870142583223583</v>
       </c>
       <c r="M17">
-        <v>50.6175008077326</v>
+        <v>15.5398112243534</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.129726994125349</v>
+        <v>2.424908851718698</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.01421665378093806</v>
+        <v>0.1331375866787639</v>
       </c>
       <c r="D18">
-        <v>0.01757170854617485</v>
+        <v>0.1170482072277963</v>
       </c>
       <c r="E18">
-        <v>0.2368111021894279</v>
+        <v>0.1430450638561851</v>
       </c>
       <c r="F18">
-        <v>0.2836603707724805</v>
+        <v>0.9622238353492421</v>
       </c>
       <c r="G18">
-        <v>0.3687843196824758</v>
+        <v>0.5489875155006061</v>
       </c>
       <c r="H18">
-        <v>0.1633878817829668</v>
+        <v>0.6842101042648281</v>
       </c>
       <c r="I18">
-        <v>0.2141891671430365</v>
+        <v>0.6682671772670545</v>
       </c>
       <c r="J18">
-        <v>0.6177659903097208</v>
+        <v>0.2423376930414776</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.6867915875418618</v>
+        <v>0.2837218810151825</v>
       </c>
       <c r="M18">
-        <v>49.05010373956259</v>
+        <v>15.18002056120622</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.079542145124861</v>
+        <v>2.439018360579738</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.01384959281958942</v>
+        <v>0.1335016295540115</v>
       </c>
       <c r="D19">
-        <v>0.01737436280679816</v>
+        <v>0.1172970356999485</v>
       </c>
       <c r="E19">
-        <v>0.2336215326829532</v>
+        <v>0.1428473577959224</v>
       </c>
       <c r="F19">
-        <v>0.2786678728613907</v>
+        <v>0.9645590049016093</v>
       </c>
       <c r="G19">
-        <v>0.3625663277059488</v>
+        <v>0.5501144271138543</v>
       </c>
       <c r="H19">
-        <v>0.161944722984515</v>
+        <v>0.685397257406386</v>
       </c>
       <c r="I19">
-        <v>0.2104454907997422</v>
+        <v>0.669870964214148</v>
       </c>
       <c r="J19">
-        <v>0.6097810407942745</v>
+        <v>0.2413698455136881</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.678201376055938</v>
+        <v>0.2826113322513208</v>
       </c>
       <c r="M19">
-        <v>48.526305193025</v>
+        <v>15.05815434819976</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.063260432886011</v>
+        <v>2.44385528557045</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.01565784375750212</v>
+        <v>0.1318749306444573</v>
       </c>
       <c r="D20">
-        <v>0.01836114386415844</v>
+        <v>0.1161853067163392</v>
       </c>
       <c r="E20">
-        <v>0.2483364176746363</v>
+        <v>0.1437483307470728</v>
       </c>
       <c r="F20">
-        <v>0.3022554205977812</v>
+        <v>0.9541450008346786</v>
       </c>
       <c r="G20">
-        <v>0.3914821951976677</v>
+        <v>0.5451101602666171</v>
       </c>
       <c r="H20">
-        <v>0.1688476433972141</v>
+        <v>0.6801009186807789</v>
       </c>
       <c r="I20">
-        <v>0.2280939731271765</v>
+        <v>0.6627204635039341</v>
       </c>
       <c r="J20">
-        <v>0.6464665924750932</v>
+        <v>0.2457412820134408</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.7176377595991994</v>
+        <v>0.287625606398251</v>
       </c>
       <c r="M20">
-        <v>50.91104531379352</v>
+        <v>15.60637820158223</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.1393671206487</v>
+        <v>2.422325923193199</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.02511047199678629</v>
+        <v>0.1266132684887253</v>
       </c>
       <c r="D21">
-        <v>0.02381284137341311</v>
+        <v>0.1125916493101187</v>
       </c>
       <c r="E21">
-        <v>0.3056919695361842</v>
+        <v>0.1469761988331513</v>
       </c>
       <c r="F21">
-        <v>0.4052077349659058</v>
+        <v>0.9208264483598541</v>
       </c>
       <c r="G21">
-        <v>0.5084002489757893</v>
+        <v>0.5294827067591683</v>
       </c>
       <c r="H21">
-        <v>0.2005923311113662</v>
+        <v>0.6631166628885978</v>
       </c>
       <c r="I21">
-        <v>0.3043392260331501</v>
+        <v>0.6398755195439421</v>
       </c>
       <c r="J21">
-        <v>0.7862334764032965</v>
+        <v>0.2607156741087238</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.8672564140741628</v>
+        <v>0.3047714111748974</v>
       </c>
       <c r="M21">
-        <v>59.53153251917473</v>
+        <v>17.44521158828627</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.454913373506884</v>
+        <v>2.354186779928312</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.03489534342654821</v>
+        <v>0.1233287995434367</v>
       </c>
       <c r="D22">
-        <v>0.02966828368467844</v>
+        <v>0.1103499142782525</v>
       </c>
       <c r="E22">
-        <v>0.3517947757217428</v>
+        <v>0.1492396861261369</v>
       </c>
       <c r="F22">
-        <v>0.4969749612105332</v>
+        <v>0.9003170610235287</v>
       </c>
       <c r="G22">
-        <v>0.6052227473542615</v>
+        <v>0.5201709096336629</v>
       </c>
       <c r="H22">
-        <v>0.2300368878523784</v>
+        <v>0.6526280437266223</v>
       </c>
       <c r="I22">
-        <v>0.3716724026670235</v>
+        <v>0.625839175761687</v>
       </c>
       <c r="J22">
-        <v>0.8955917323111464</v>
+        <v>0.2707245947497796</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.9837438621826351</v>
+        <v>0.3162080012355375</v>
       </c>
       <c r="M22">
-        <v>65.83203581035042</v>
+        <v>18.64487616100968</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.722660630761737</v>
+        <v>2.312834300966813</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.02924919907333035</v>
+        <v>0.1250675037139786</v>
       </c>
       <c r="D23">
-        <v>0.0262729465217042</v>
+        <v>0.1115364958332421</v>
       </c>
       <c r="E23">
-        <v>0.3261660791834373</v>
+        <v>0.1480172568426994</v>
       </c>
       <c r="F23">
-        <v>0.4451799520236932</v>
+        <v>0.9111461072986486</v>
       </c>
       <c r="G23">
-        <v>0.5511996283376135</v>
+        <v>0.5250571544246725</v>
       </c>
       <c r="H23">
-        <v>0.2133301527225768</v>
+        <v>0.6581695843393334</v>
       </c>
       <c r="I23">
-        <v>0.333721830156712</v>
+        <v>0.6332478611553682</v>
       </c>
       <c r="J23">
-        <v>0.8350853177687014</v>
+        <v>0.2653617493511859</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.9193486112620093</v>
+        <v>0.3100824068281725</v>
       </c>
       <c r="M23">
-        <v>62.39002257965586</v>
+        <v>18.0047723226387</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.572701646839988</v>
+        <v>2.334610488068336</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.0155478797074835</v>
+        <v>0.1319635004700217</v>
       </c>
       <c r="D24">
-        <v>0.01830022390131703</v>
+        <v>0.116245828349804</v>
       </c>
       <c r="E24">
-        <v>0.2475036444541558</v>
+        <v>0.1436981091230507</v>
       </c>
       <c r="F24">
-        <v>0.3008839613943763</v>
+        <v>0.95471065401928</v>
       </c>
       <c r="G24">
-        <v>0.3898307956306155</v>
+        <v>0.5453805525914248</v>
       </c>
       <c r="H24">
-        <v>0.1684408595063331</v>
+        <v>0.6803887369439394</v>
       </c>
       <c r="I24">
-        <v>0.2270703479653697</v>
+        <v>0.6631087341411117</v>
       </c>
       <c r="J24">
-        <v>0.644400561019097</v>
+        <v>0.2455001648064155</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.7154188062907849</v>
+        <v>0.2873491438261198</v>
       </c>
       <c r="M24">
-        <v>50.77819902134269</v>
+        <v>15.57628461783537</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.134995028477448</v>
+        <v>2.423492558501039</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.01027225423990075</v>
+        <v>0.1400490336070064</v>
       </c>
       <c r="D25">
-        <v>0.01570620225566088</v>
+        <v>0.121775775007805</v>
       </c>
       <c r="E25">
-        <v>0.1847512862434613</v>
+        <v>0.1396726351035156</v>
       </c>
       <c r="F25">
-        <v>0.212594195838463</v>
+        <v>1.007004697398941</v>
       </c>
       <c r="G25">
-        <v>0.2719053284186899</v>
+        <v>0.571060510862111</v>
       </c>
       <c r="H25">
-        <v>0.1444601398723364</v>
+        <v>0.7069340799855084</v>
       </c>
       <c r="I25">
-        <v>0.160196569546315</v>
+        <v>0.6990616424386324</v>
       </c>
       <c r="J25">
-        <v>0.4847457812314389</v>
+        <v>0.2249772118407805</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.5431567819244094</v>
+        <v>0.2637659000964305</v>
       </c>
       <c r="M25">
-        <v>39.94318751720965</v>
+        <v>12.94636565306166</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.8331197744959695</v>
+        <v>2.532681409165036</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_15/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_15/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1465433017255542</v>
+        <v>0.01090739865381707</v>
       </c>
       <c r="D2">
-        <v>0.1262258172897148</v>
+        <v>0.01663880330064416</v>
       </c>
       <c r="E2">
-        <v>0.1372242642186237</v>
+        <v>0.1484964661281367</v>
       </c>
       <c r="F2">
-        <v>1.049929521006806</v>
+        <v>0.1815056639348995</v>
       </c>
       <c r="G2">
-        <v>0.593079604595367</v>
+        <v>0.2132118491707544</v>
       </c>
       <c r="H2">
-        <v>0.7286482229212794</v>
+        <v>0.139525348787501</v>
       </c>
       <c r="I2">
-        <v>0.7286526594982874</v>
+        <v>0.1352111441262878</v>
       </c>
       <c r="J2">
-        <v>0.2105825628211022</v>
+        <v>0.3877247023659294</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2471504961990263</v>
+        <v>0.4375454878220353</v>
       </c>
       <c r="M2">
-        <v>10.99935363126821</v>
+        <v>32.70053770332663</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.624169771381901</v>
+        <v>0.6971461072302816</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1512743028483996</v>
+        <v>0.01315576744110203</v>
       </c>
       <c r="D3">
-        <v>0.1294733883543273</v>
+        <v>0.01841487844343348</v>
       </c>
       <c r="E3">
-        <v>0.1358730885044181</v>
+        <v>0.1276711548744096</v>
       </c>
       <c r="F3">
-        <v>1.081708089017781</v>
+        <v>0.1746559643695811</v>
       </c>
       <c r="G3">
-        <v>0.6098825884774826</v>
+        <v>0.1851207852205476</v>
       </c>
       <c r="H3">
-        <v>0.744692625321477</v>
+        <v>0.1416856591351774</v>
       </c>
       <c r="I3">
-        <v>0.7506023444175973</v>
+        <v>0.1284394815491012</v>
       </c>
       <c r="J3">
-        <v>0.2012473714441541</v>
+        <v>0.3295911612866576</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2363310134679182</v>
+        <v>0.3738285861350619</v>
       </c>
       <c r="M3">
-        <v>9.672548105483997</v>
+        <v>28.0531482403714</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.692913045803508</v>
+        <v>0.6412882555227384</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1543393044362844</v>
+        <v>0.01521404805351878</v>
       </c>
       <c r="D4">
-        <v>0.1315803123318169</v>
+        <v>0.01993349293057989</v>
       </c>
       <c r="E4">
-        <v>0.1351913100944913</v>
+        <v>0.1161981918141812</v>
       </c>
       <c r="F4">
-        <v>1.10252289669214</v>
+        <v>0.1758798155006396</v>
       </c>
       <c r="G4">
-        <v>0.6211072812141225</v>
+        <v>0.1722910022802751</v>
       </c>
       <c r="H4">
-        <v>0.7551910564542723</v>
+        <v>0.1451661864167306</v>
       </c>
       <c r="I4">
-        <v>0.7649978706321505</v>
+        <v>0.1281586712439449</v>
       </c>
       <c r="J4">
-        <v>0.1957148321517082</v>
+        <v>0.2965292542003368</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2298975661908145</v>
+        <v>0.337416128425815</v>
       </c>
       <c r="M4">
-        <v>8.854117297462267</v>
+        <v>25.28525343495318</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.738387094076174</v>
+        <v>0.6208612083884475</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1556282079298121</v>
+        <v>0.01619782102889289</v>
       </c>
       <c r="D5">
-        <v>0.1324670792130256</v>
+        <v>0.02064427347886166</v>
       </c>
       <c r="E5">
-        <v>0.1349500924337335</v>
+        <v>0.1117918680295737</v>
       </c>
       <c r="F5">
-        <v>1.111329145802284</v>
+        <v>0.1775546853342291</v>
       </c>
       <c r="G5">
-        <v>0.6259066778358573</v>
+        <v>0.1680125825997862</v>
       </c>
       <c r="H5">
-        <v>0.7596307204188122</v>
+        <v>0.147058709467899</v>
       </c>
       <c r="I5">
-        <v>0.7710925688753889</v>
+        <v>0.1288835435948279</v>
       </c>
       <c r="J5">
-        <v>0.1935093440413738</v>
+        <v>0.2835886417071976</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2273276267139721</v>
+        <v>0.3231252602870285</v>
       </c>
       <c r="M5">
-        <v>8.519638314464089</v>
+        <v>24.17387312085509</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.757730306520671</v>
+        <v>0.6155413258984623</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1558446276446155</v>
+        <v>0.01636928559252127</v>
       </c>
       <c r="D6">
-        <v>0.1326160219496657</v>
+        <v>0.02076745138420577</v>
       </c>
       <c r="E6">
-        <v>0.1349122337891373</v>
+        <v>0.1110748918434048</v>
       </c>
       <c r="F6">
-        <v>1.112810885721924</v>
+        <v>0.1778989287098547</v>
       </c>
       <c r="G6">
-        <v>0.6267171311861119</v>
+        <v>0.1673553359832667</v>
       </c>
       <c r="H6">
-        <v>0.760377638883817</v>
+        <v>0.1473998445321243</v>
       </c>
       <c r="I6">
-        <v>0.7721183104135285</v>
+        <v>0.1290510842734776</v>
       </c>
       <c r="J6">
-        <v>0.1931460585754934</v>
+        <v>0.2814687325916623</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2269039874870629</v>
+        <v>0.320781946466866</v>
       </c>
       <c r="M6">
-        <v>8.464039895500775</v>
+        <v>23.99020321139602</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.760991023950496</v>
+        <v>0.6148268564037238</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.154356526022486</v>
+        <v>0.0152267583336112</v>
       </c>
       <c r="D7">
-        <v>0.1315921577643984</v>
+        <v>0.01994272495613458</v>
       </c>
       <c r="E7">
-        <v>0.1351879094298098</v>
+        <v>0.1161377492766675</v>
       </c>
       <c r="F7">
-        <v>1.102640353424846</v>
+        <v>0.1758978668577349</v>
       </c>
       <c r="G7">
-        <v>0.6211710994772872</v>
+        <v>0.1722296487546231</v>
       </c>
       <c r="H7">
-        <v>0.7552502791865905</v>
+        <v>0.1451898704682506</v>
       </c>
       <c r="I7">
-        <v>0.7650791443790474</v>
+        <v>0.1281652105790343</v>
       </c>
       <c r="J7">
-        <v>0.1956848908350537</v>
+        <v>0.2963527286426739</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2298626988537507</v>
+        <v>0.3372213366785815</v>
       </c>
       <c r="M7">
-        <v>8.849610307620992</v>
+        <v>25.27020374966514</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.738644686745928</v>
+        <v>0.6207778759902141</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1481410827165135</v>
+        <v>0.01152488621275438</v>
       </c>
       <c r="D8">
-        <v>0.1273220187163204</v>
+        <v>0.01715175553529136</v>
       </c>
       <c r="E8">
-        <v>0.136727342354952</v>
+        <v>0.1410018159873019</v>
       </c>
       <c r="F8">
-        <v>1.060614297525248</v>
+        <v>0.1778914800321658</v>
       </c>
       <c r="G8">
-        <v>0.5986831098797438</v>
+        <v>0.2025022609791378</v>
       </c>
       <c r="H8">
-        <v>0.7340452763284091</v>
+        <v>0.1397785145393016</v>
       </c>
       <c r="I8">
-        <v>0.7360287982724572</v>
+        <v>0.1319816612688456</v>
       </c>
       <c r="J8">
-        <v>0.2073217653236128</v>
+        <v>0.3670465709574273</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2433757719745699</v>
+        <v>0.4149230718802954</v>
       </c>
       <c r="M8">
-        <v>10.54264252438145</v>
+        <v>31.0769983648745</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.647189341890936</v>
+        <v>0.6746875366326748</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1372403487916785</v>
+        <v>0.01117356467651476</v>
       </c>
       <c r="D9">
-        <v>0.1198536471905385</v>
+        <v>0.0160287303600164</v>
       </c>
       <c r="E9">
-        <v>0.1409466561378352</v>
+        <v>0.2039152722961433</v>
       </c>
       <c r="F9">
-        <v>0.9886933013169852</v>
+        <v>0.2358894891550634</v>
       </c>
       <c r="G9">
-        <v>0.5619188535974189</v>
+        <v>0.306267303980178</v>
       </c>
       <c r="H9">
-        <v>0.6976520639155837</v>
+        <v>0.1501521291075534</v>
       </c>
       <c r="I9">
-        <v>0.6864596482817333</v>
+        <v>0.1781137953856131</v>
       </c>
       <c r="J9">
-        <v>0.2317753936245879</v>
+        <v>0.5344332228108186</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2715899386168275</v>
+        <v>0.5969488819161057</v>
       </c>
       <c r="M9">
-        <v>13.83380611208622</v>
+        <v>43.44454627592984</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.494153857113247</v>
+        <v>0.9184403505744001</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1300400915553155</v>
+        <v>0.01826438801001729</v>
       </c>
       <c r="D10">
-        <v>0.114931752576247</v>
+        <v>0.01982886845620513</v>
       </c>
       <c r="E10">
-        <v>0.1448191452812821</v>
+        <v>0.2664825291885933</v>
       </c>
       <c r="F10">
-        <v>0.9424622975217076</v>
+        <v>0.3331208443213356</v>
       </c>
       <c r="G10">
-        <v>0.5395628461749595</v>
+        <v>0.427851846147064</v>
       </c>
       <c r="H10">
-        <v>0.6741527246731067</v>
+        <v>0.1781432210868132</v>
       </c>
       <c r="I10">
-        <v>0.6547044702664202</v>
+        <v>0.251064024769299</v>
       </c>
       <c r="J10">
-        <v>0.2508172733684262</v>
+        <v>0.6912040030897799</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2934427726970199</v>
+        <v>0.7656311493536805</v>
       </c>
       <c r="M10">
-        <v>16.23616699741677</v>
+        <v>53.74697941657655</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.398303039083146</v>
+        <v>1.23634275981712</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1269452724409419</v>
+        <v>0.02431583418745831</v>
       </c>
       <c r="D11">
-        <v>0.1128183102810709</v>
+        <v>0.02334407150234696</v>
       </c>
       <c r="E11">
-        <v>0.1467581589733129</v>
+        <v>0.3015433546363653</v>
       </c>
       <c r="F11">
-        <v>0.9229120762650069</v>
+        <v>0.3972834214832517</v>
       </c>
       <c r="G11">
-        <v>0.530443158372492</v>
+        <v>0.499779071383017</v>
       </c>
       <c r="H11">
-        <v>0.6641817266102237</v>
+        <v>0.1980874199774263</v>
       </c>
       <c r="I11">
-        <v>0.6413040351384467</v>
+        <v>0.2985026346388935</v>
       </c>
       <c r="J11">
-        <v>0.2597325770297516</v>
+        <v>0.7762743446133697</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3036471109371917</v>
+        <v>0.8566248297199053</v>
       </c>
       <c r="M11">
-        <v>17.32618580609409</v>
+        <v>58.93958795558996</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.358417832088008</v>
+        <v>1.431311202013063</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1257997705094809</v>
+        <v>0.02719472128399403</v>
       </c>
       <c r="D12">
-        <v>0.1120363180587916</v>
+        <v>0.02504814008511147</v>
       </c>
       <c r="E12">
-        <v>0.1475187522745358</v>
+        <v>0.3162197317667363</v>
       </c>
       <c r="F12">
-        <v>0.915725740366625</v>
+        <v>0.4255893138304643</v>
       </c>
       <c r="G12">
-        <v>0.5271441430749064</v>
+        <v>0.5303592241424582</v>
       </c>
       <c r="H12">
-        <v>0.6605107342893746</v>
+        <v>0.2070673929133733</v>
       </c>
       <c r="I12">
-        <v>0.6363827498063195</v>
+        <v>0.3193328142884653</v>
       </c>
       <c r="J12">
-        <v>0.2631466057509471</v>
+        <v>0.8114134483628561</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3075507326683748</v>
+        <v>0.8941183891038662</v>
       </c>
       <c r="M12">
-        <v>17.73858496748267</v>
+        <v>61.0141096192142</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.343858978400021</v>
+        <v>1.515223743701824</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1260452914076851</v>
+        <v>0.02654448388338793</v>
       </c>
       <c r="D13">
-        <v>0.1122039148211726</v>
+        <v>0.0246619151133487</v>
       </c>
       <c r="E13">
-        <v>0.1473537602851636</v>
+        <v>0.3129864364250565</v>
       </c>
       <c r="F13">
-        <v>0.9172637347953341</v>
+        <v>0.4192894769141375</v>
       </c>
       <c r="G13">
-        <v>0.5278477228691258</v>
+        <v>0.5236034702459875</v>
       </c>
       <c r="H13">
-        <v>0.6612966639953584</v>
+        <v>0.2050612856289291</v>
       </c>
       <c r="I13">
-        <v>0.6374357782161937</v>
+        <v>0.3147010733314062</v>
       </c>
       <c r="J13">
-        <v>0.2624096170303574</v>
+        <v>0.8036940598496614</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3067082364977693</v>
+        <v>0.8858860735874998</v>
       </c>
       <c r="M13">
-        <v>17.64978308985417</v>
+        <v>60.56171125495354</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.346970093799086</v>
+        <v>1.496640434865782</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1268504987179782</v>
+        <v>0.0245394827074179</v>
       </c>
       <c r="D14">
-        <v>0.1127536065365433</v>
+        <v>0.02347587289235875</v>
       </c>
       <c r="E14">
-        <v>0.1468202008749486</v>
+        <v>0.3027191734713099</v>
       </c>
       <c r="F14">
-        <v>0.9223164817277478</v>
+        <v>0.3995229615158706</v>
       </c>
       <c r="G14">
-        <v>0.5301686321040506</v>
+        <v>0.5022205521223526</v>
       </c>
       <c r="H14">
-        <v>0.6638776031559672</v>
+        <v>0.198794585443423</v>
       </c>
       <c r="I14">
-        <v>0.6408960716931027</v>
+        <v>0.3001525754643808</v>
       </c>
       <c r="J14">
-        <v>0.2600126801648202</v>
+        <v>0.7790991562334426</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3039674639455825</v>
+        <v>0.8596407984708208</v>
       </c>
       <c r="M14">
-        <v>17.36012125290398</v>
+        <v>59.10781238741663</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.357209088815864</v>
+        <v>1.437990719857254</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1273471686258603</v>
+        <v>0.02339503460600767</v>
       </c>
       <c r="D15">
-        <v>0.1130927028097659</v>
+        <v>0.02280257742023295</v>
       </c>
       <c r="E15">
-        <v>0.1464968344996436</v>
+        <v>0.2966303801051424</v>
       </c>
       <c r="F15">
-        <v>0.9254398031082758</v>
+        <v>0.3879821154348591</v>
       </c>
       <c r="G15">
-        <v>0.5316104667894734</v>
+        <v>0.489595387570688</v>
       </c>
       <c r="H15">
-        <v>0.6654721944853748</v>
+        <v>0.1951571446721942</v>
       </c>
       <c r="I15">
-        <v>0.6430356344726604</v>
+        <v>0.2916463508064737</v>
       </c>
       <c r="J15">
-        <v>0.2585494847836856</v>
+        <v>0.7644526169340935</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3022938493841991</v>
+        <v>0.8439994373724318</v>
       </c>
       <c r="M15">
-        <v>17.18264842565225</v>
+        <v>58.23275276678515</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.363552023817931</v>
+        <v>1.403489742225588</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1302460193165231</v>
+        <v>0.01793904873136754</v>
       </c>
       <c r="D16">
-        <v>0.1150724201841626</v>
+        <v>0.0196435833014732</v>
       </c>
       <c r="E16">
-        <v>0.1446960651059825</v>
+        <v>0.2643570156865636</v>
       </c>
       <c r="F16">
-        <v>0.9437700838129146</v>
+        <v>0.3294134082274169</v>
       </c>
       <c r="G16">
-        <v>0.5401802608582358</v>
+        <v>0.4235563472498427</v>
       </c>
       <c r="H16">
-        <v>0.6748189415011296</v>
+        <v>0.1770139447107368</v>
       </c>
       <c r="I16">
-        <v>0.6556014964312915</v>
+        <v>0.2483111238298079</v>
       </c>
       <c r="J16">
-        <v>0.2502398646578712</v>
+        <v>0.6859906116102081</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2927813283141631</v>
+        <v>0.7600436272616236</v>
       </c>
       <c r="M16">
-        <v>16.16487806119903</v>
+        <v>53.42041218339847</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.400985311250224</v>
+        <v>1.224825243238143</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1320709583660573</v>
+        <v>0.01541631506771779</v>
       </c>
       <c r="D17">
-        <v>0.1163192580148333</v>
+        <v>0.01822746931464181</v>
       </c>
       <c r="E17">
-        <v>0.1436373581842787</v>
+        <v>0.2464983366689921</v>
       </c>
       <c r="F17">
-        <v>0.9553971476961181</v>
+        <v>0.299233964349682</v>
       </c>
       <c r="G17">
-        <v>0.5457089299962306</v>
+        <v>0.387839512905316</v>
       </c>
       <c r="H17">
-        <v>0.6807380199241635</v>
+        <v>0.1679522662584958</v>
       </c>
       <c r="I17">
-        <v>0.6635799697197591</v>
+        <v>0.2258384500015254</v>
       </c>
       <c r="J17">
-        <v>0.2452081089695071</v>
+        <v>0.6419049121634401</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2870142583223583</v>
+        <v>0.7127381254813514</v>
       </c>
       <c r="M17">
-        <v>15.5398112243534</v>
+        <v>50.6175008077322</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.424908851718698</v>
+        <v>1.129726994125377</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1331375866787639</v>
+        <v>0.01421665378034831</v>
       </c>
       <c r="D18">
-        <v>0.1170482072277963</v>
+        <v>0.01757170854602919</v>
       </c>
       <c r="E18">
-        <v>0.1430450638561851</v>
+        <v>0.2368111021894137</v>
       </c>
       <c r="F18">
-        <v>0.9622238353492421</v>
+        <v>0.2836603707724592</v>
       </c>
       <c r="G18">
-        <v>0.5489875155006061</v>
+        <v>0.3687843196824616</v>
       </c>
       <c r="H18">
-        <v>0.6842101042648281</v>
+        <v>0.1633878817829668</v>
       </c>
       <c r="I18">
-        <v>0.6682671772670545</v>
+        <v>0.21418916714304</v>
       </c>
       <c r="J18">
-        <v>0.2423376930414776</v>
+        <v>0.617765990309735</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2837218810151825</v>
+        <v>0.6867915875418049</v>
       </c>
       <c r="M18">
-        <v>15.18002056120622</v>
+        <v>49.05010373956264</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.439018360579738</v>
+        <v>1.079542145124833</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1335016295540115</v>
+        <v>0.01384959281936915</v>
       </c>
       <c r="D19">
-        <v>0.1172970356999485</v>
+        <v>0.01737436280668803</v>
       </c>
       <c r="E19">
-        <v>0.1428473577959224</v>
+        <v>0.2336215326829532</v>
       </c>
       <c r="F19">
-        <v>0.9645590049016093</v>
+        <v>0.2786678728613978</v>
       </c>
       <c r="G19">
-        <v>0.5501144271138543</v>
+        <v>0.3625663277060198</v>
       </c>
       <c r="H19">
-        <v>0.685397257406386</v>
+        <v>0.1619447229845292</v>
       </c>
       <c r="I19">
-        <v>0.669870964214148</v>
+        <v>0.2104454907997457</v>
       </c>
       <c r="J19">
-        <v>0.2413698455136881</v>
+        <v>0.609781040794303</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2826113322513208</v>
+        <v>0.678201376055938</v>
       </c>
       <c r="M19">
-        <v>15.05815434819976</v>
+        <v>48.52630519302528</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.44385528557045</v>
+        <v>1.063260432886011</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1318749306444573</v>
+        <v>0.01565784375765134</v>
       </c>
       <c r="D20">
-        <v>0.1161853067163392</v>
+        <v>0.01836114386408028</v>
       </c>
       <c r="E20">
-        <v>0.1437483307470728</v>
+        <v>0.248336417674615</v>
       </c>
       <c r="F20">
-        <v>0.9541450008346786</v>
+        <v>0.3022554205977812</v>
       </c>
       <c r="G20">
-        <v>0.5451101602666171</v>
+        <v>0.3914821951976677</v>
       </c>
       <c r="H20">
-        <v>0.6801009186807789</v>
+        <v>0.1688476433973136</v>
       </c>
       <c r="I20">
-        <v>0.6627204635039341</v>
+        <v>0.22809397312718</v>
       </c>
       <c r="J20">
-        <v>0.2457412820134408</v>
+        <v>0.6464665924751074</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.287625606398251</v>
+        <v>0.7176377595992278</v>
       </c>
       <c r="M20">
-        <v>15.60637820158223</v>
+        <v>50.91104531379341</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.422325923193199</v>
+        <v>1.1393671206487</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1266132684887253</v>
+        <v>0.02511047199686089</v>
       </c>
       <c r="D21">
-        <v>0.1125916493101187</v>
+        <v>0.02381284137355522</v>
       </c>
       <c r="E21">
-        <v>0.1469761988331513</v>
+        <v>0.3056919695361202</v>
       </c>
       <c r="F21">
-        <v>0.9208264483598541</v>
+        <v>0.4052077349659129</v>
       </c>
       <c r="G21">
-        <v>0.5294827067591683</v>
+        <v>0.5084002489758177</v>
       </c>
       <c r="H21">
-        <v>0.6631166628885978</v>
+        <v>0.2005923311113662</v>
       </c>
       <c r="I21">
-        <v>0.6398755195439421</v>
+        <v>0.3043392260331501</v>
       </c>
       <c r="J21">
-        <v>0.2607156741087238</v>
+        <v>0.7862334764032965</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3047714111748974</v>
+        <v>0.8672564140742907</v>
       </c>
       <c r="M21">
-        <v>17.44521158828627</v>
+        <v>59.5315325191745</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.354186779928312</v>
+        <v>1.454913373506884</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1233287995434367</v>
+        <v>0.0348953434265411</v>
       </c>
       <c r="D22">
-        <v>0.1103499142782525</v>
+        <v>0.02966828368457186</v>
       </c>
       <c r="E22">
-        <v>0.1492396861261369</v>
+        <v>0.3517947757217996</v>
       </c>
       <c r="F22">
-        <v>0.9003170610235287</v>
+        <v>0.4969749612105332</v>
       </c>
       <c r="G22">
-        <v>0.5201709096336629</v>
+        <v>0.6052227473543041</v>
       </c>
       <c r="H22">
-        <v>0.6526280437266223</v>
+        <v>0.2300368878523784</v>
       </c>
       <c r="I22">
-        <v>0.625839175761687</v>
+        <v>0.3716724026670093</v>
       </c>
       <c r="J22">
-        <v>0.2707245947497796</v>
+        <v>0.8955917323112743</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3162080012355375</v>
+        <v>0.9837438621826777</v>
       </c>
       <c r="M22">
-        <v>18.64487616100968</v>
+        <v>65.83203581035036</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.312834300966813</v>
+        <v>1.722660630761709</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1250675037139786</v>
+        <v>0.02924919907324863</v>
       </c>
       <c r="D23">
-        <v>0.1115364958332421</v>
+        <v>0.02627294652185697</v>
       </c>
       <c r="E23">
-        <v>0.1480172568426994</v>
+        <v>0.3261660791834373</v>
       </c>
       <c r="F23">
-        <v>0.9111461072986486</v>
+        <v>0.4451799520236719</v>
       </c>
       <c r="G23">
-        <v>0.5250571544246725</v>
+        <v>0.5511996283375993</v>
       </c>
       <c r="H23">
-        <v>0.6581695843393334</v>
+        <v>0.2133301527225768</v>
       </c>
       <c r="I23">
-        <v>0.6332478611553682</v>
+        <v>0.3337218301567191</v>
       </c>
       <c r="J23">
-        <v>0.2653617493511859</v>
+        <v>0.835085317768673</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3100824068281725</v>
+        <v>0.9193486112620093</v>
       </c>
       <c r="M23">
-        <v>18.0047723226387</v>
+        <v>62.39002257965598</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.334610488068336</v>
+        <v>1.57270164683996</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1319635004700217</v>
+        <v>0.01554787970718507</v>
       </c>
       <c r="D24">
-        <v>0.116245828349804</v>
+        <v>0.01830022390120689</v>
       </c>
       <c r="E24">
-        <v>0.1436981091230507</v>
+        <v>0.247503644454163</v>
       </c>
       <c r="F24">
-        <v>0.95471065401928</v>
+        <v>0.3008839613943977</v>
       </c>
       <c r="G24">
-        <v>0.5453805525914248</v>
+        <v>0.389830795630516</v>
       </c>
       <c r="H24">
-        <v>0.6803887369439394</v>
+        <v>0.1684408595063189</v>
       </c>
       <c r="I24">
-        <v>0.6631087341411117</v>
+        <v>0.2270703479653733</v>
       </c>
       <c r="J24">
-        <v>0.2455001648064155</v>
+        <v>0.6444005610191397</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2873491438261198</v>
+        <v>0.7154188062907849</v>
       </c>
       <c r="M24">
-        <v>15.57628461783537</v>
+        <v>50.77819902134257</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.423492558501039</v>
+        <v>1.134995028477476</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1400490336070064</v>
+        <v>0.0102722542399043</v>
       </c>
       <c r="D25">
-        <v>0.121775775007805</v>
+        <v>0.0157062022555543</v>
       </c>
       <c r="E25">
-        <v>0.1396726351035156</v>
+        <v>0.1847512862434755</v>
       </c>
       <c r="F25">
-        <v>1.007004697398941</v>
+        <v>0.212594195838463</v>
       </c>
       <c r="G25">
-        <v>0.571060510862111</v>
+        <v>0.2719053284187609</v>
       </c>
       <c r="H25">
-        <v>0.7069340799855084</v>
+        <v>0.1444601398724501</v>
       </c>
       <c r="I25">
-        <v>0.6990616424386324</v>
+        <v>0.1601965695463186</v>
       </c>
       <c r="J25">
-        <v>0.2249772118407805</v>
+        <v>0.4847457812314673</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2637659000964305</v>
+        <v>0.5431567819243952</v>
       </c>
       <c r="M25">
-        <v>12.94636565306166</v>
+        <v>39.94318751720959</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.532681409165036</v>
+        <v>0.8331197744959979</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_15/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_15/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.01090739865381707</v>
+        <v>0.04930022877384665</v>
       </c>
       <c r="D2">
-        <v>0.01663880330064416</v>
+        <v>0.03421315797792346</v>
       </c>
       <c r="E2">
-        <v>0.1484964661281367</v>
+        <v>0.1504483416226385</v>
       </c>
       <c r="F2">
-        <v>0.1815056639348995</v>
+        <v>2.47900260293855</v>
       </c>
       <c r="G2">
-        <v>0.2132118491707544</v>
+        <v>2.715016221950663</v>
       </c>
       <c r="H2">
-        <v>0.139525348787501</v>
+        <v>0.01299766265291413</v>
       </c>
       <c r="I2">
-        <v>0.1352111441262878</v>
+        <v>0.07511446235066543</v>
       </c>
       <c r="J2">
-        <v>0.3877247023659294</v>
+        <v>1.417601950229368</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.932572455204436</v>
       </c>
       <c r="L2">
-        <v>0.4375454878220353</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>32.70053770332663</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.6971461072302816</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>3.590388101961423</v>
+      </c>
+      <c r="P2">
+        <v>3.615386733011519</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01315576744110203</v>
+        <v>0.04289113102806219</v>
       </c>
       <c r="D3">
-        <v>0.01841487844343348</v>
+        <v>0.03058403714463154</v>
       </c>
       <c r="E3">
-        <v>0.1276711548744096</v>
+        <v>0.1368856183910054</v>
       </c>
       <c r="F3">
-        <v>0.1746559643695811</v>
+        <v>2.169080239185689</v>
       </c>
       <c r="G3">
-        <v>0.1851207852205476</v>
+        <v>2.367678025415699</v>
       </c>
       <c r="H3">
-        <v>0.1416856591351774</v>
+        <v>0.008671805559203744</v>
       </c>
       <c r="I3">
-        <v>0.1284394815491012</v>
+        <v>0.05977557709534453</v>
       </c>
       <c r="J3">
-        <v>0.3295911612866576</v>
+        <v>1.254632271139172</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.696349881843531</v>
       </c>
       <c r="L3">
-        <v>0.3738285861350619</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>28.0531482403714</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.6412882555227384</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>3.125541880348237</v>
+      </c>
+      <c r="P3">
+        <v>3.237891363565552</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01521404805351878</v>
+        <v>0.03909358383784234</v>
       </c>
       <c r="D4">
-        <v>0.01993349293057989</v>
+        <v>0.02832938234248772</v>
       </c>
       <c r="E4">
-        <v>0.1161981918141812</v>
+        <v>0.128505216404605</v>
       </c>
       <c r="F4">
-        <v>0.1758798155006396</v>
+        <v>1.980287633427238</v>
       </c>
       <c r="G4">
-        <v>0.1722910022802751</v>
+        <v>2.155858678977467</v>
       </c>
       <c r="H4">
-        <v>0.1451661864167306</v>
+        <v>0.00639483209906716</v>
       </c>
       <c r="I4">
-        <v>0.1281586712439449</v>
+        <v>0.0510078474205522</v>
       </c>
       <c r="J4">
-        <v>0.2965292542003368</v>
+        <v>1.155366421433115</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.551967535564359</v>
       </c>
       <c r="L4">
-        <v>0.337416128425815</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>25.28525343495318</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.6208612083884475</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>2.839806305049862</v>
+      </c>
+      <c r="P4">
+        <v>3.006158546902725</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01619782102889289</v>
+        <v>0.03756368103260188</v>
       </c>
       <c r="D5">
-        <v>0.02064427347886166</v>
+        <v>0.02731773306983953</v>
       </c>
       <c r="E5">
-        <v>0.1117918680295737</v>
+        <v>0.1249620901618975</v>
       </c>
       <c r="F5">
-        <v>0.1775546853342291</v>
+        <v>1.901604751176635</v>
       </c>
       <c r="G5">
-        <v>0.1680125825997862</v>
+        <v>2.067318265809774</v>
       </c>
       <c r="H5">
-        <v>0.147058709467899</v>
+        <v>0.005547756238996726</v>
       </c>
       <c r="I5">
-        <v>0.1288835435948279</v>
+        <v>0.04757498625050527</v>
       </c>
       <c r="J5">
-        <v>0.2835886417071976</v>
+        <v>1.113833251133599</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.491012733291214</v>
       </c>
       <c r="L5">
-        <v>0.3231252602870285</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>24.17387312085509</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.6155413258984623</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>2.722034504968505</v>
+      </c>
+      <c r="P5">
+        <v>2.91228595974988</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01636928559252127</v>
+        <v>0.03729965197766649</v>
       </c>
       <c r="D6">
-        <v>0.02076745138420577</v>
+        <v>0.02704455341148915</v>
       </c>
       <c r="E6">
-        <v>0.1110748918434048</v>
+        <v>0.12423757233773</v>
       </c>
       <c r="F6">
-        <v>0.1778989287098547</v>
+        <v>1.886041755551631</v>
       </c>
       <c r="G6">
-        <v>0.1673553359832667</v>
+        <v>2.049562143839978</v>
       </c>
       <c r="H6">
-        <v>0.1473998445321243</v>
+        <v>0.005405440019269236</v>
       </c>
       <c r="I6">
-        <v>0.1290510842734776</v>
+        <v>0.04701493251635647</v>
       </c>
       <c r="J6">
-        <v>0.2814687325916623</v>
+        <v>1.105421800456384</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.47816178503767</v>
       </c>
       <c r="L6">
-        <v>0.320781946466866</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>23.99020321139602</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.6148268564037238</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>2.700977756645031</v>
+      </c>
+      <c r="P6">
+        <v>2.897370821025817</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0152267583336112</v>
+        <v>0.03903775556895317</v>
       </c>
       <c r="D7">
-        <v>0.01994272495613458</v>
+        <v>0.02802800099594904</v>
       </c>
       <c r="E7">
-        <v>0.1161377492766675</v>
+        <v>0.1280864888776492</v>
       </c>
       <c r="F7">
-        <v>0.1758978668577349</v>
+        <v>1.972322940891686</v>
       </c>
       <c r="G7">
-        <v>0.1722296487546231</v>
+        <v>2.146236714577498</v>
       </c>
       <c r="H7">
-        <v>0.1451898704682506</v>
+        <v>0.006363231601991537</v>
       </c>
       <c r="I7">
-        <v>0.1281652105790343</v>
+        <v>0.05094539320027192</v>
       </c>
       <c r="J7">
-        <v>0.2963527286426739</v>
+        <v>1.150624103300913</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.543636308258669</v>
       </c>
       <c r="L7">
-        <v>0.3372213366785815</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>25.27020374966514</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.6207778759902141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>2.834119635441056</v>
+      </c>
+      <c r="P7">
+        <v>3.006736233539243</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.01152488621275438</v>
+        <v>0.04700522035587884</v>
       </c>
       <c r="D8">
-        <v>0.01715175553529136</v>
+        <v>0.03258008349066444</v>
       </c>
       <c r="E8">
-        <v>0.1410018159873019</v>
+        <v>0.1452805422057004</v>
       </c>
       <c r="F8">
-        <v>0.1778914800321658</v>
+        <v>2.36249663024455</v>
       </c>
       <c r="G8">
-        <v>0.2025022609791378</v>
+        <v>2.583561677777482</v>
       </c>
       <c r="H8">
-        <v>0.1397785145393016</v>
+        <v>0.01138694811854227</v>
       </c>
       <c r="I8">
-        <v>0.1319816612688456</v>
+        <v>0.06960587801622342</v>
       </c>
       <c r="J8">
-        <v>0.3670465709574273</v>
+        <v>1.355601247312535</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.840858237327424</v>
       </c>
       <c r="L8">
-        <v>0.4149230718802954</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>31.0769983648745</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.6746875366326748</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>3.424638408940837</v>
+      </c>
+      <c r="P8">
+        <v>3.487694450657756</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.01117356467651476</v>
+        <v>0.06409485618679112</v>
       </c>
       <c r="D9">
-        <v>0.0160287303600164</v>
+        <v>0.04184549713856001</v>
       </c>
       <c r="E9">
-        <v>0.2039152722961433</v>
+        <v>0.1794819778072849</v>
       </c>
       <c r="F9">
-        <v>0.2358894891550634</v>
+        <v>3.155655291200901</v>
       </c>
       <c r="G9">
-        <v>0.306267303980178</v>
+        <v>3.471894432026346</v>
       </c>
       <c r="H9">
-        <v>0.1501521291075534</v>
+        <v>0.02473644803560204</v>
       </c>
       <c r="I9">
-        <v>0.1781137953856131</v>
+        <v>0.11240840864789</v>
       </c>
       <c r="J9">
-        <v>0.5344332228108186</v>
+        <v>1.773344050716759</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2.445005820689573</v>
       </c>
       <c r="L9">
-        <v>0.5969488819161057</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>43.44454627592984</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.9184403505744001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>4.589281165406106</v>
+      </c>
+      <c r="P9">
+        <v>4.428026065220081</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.01826438801001729</v>
+        <v>0.07775122600475015</v>
       </c>
       <c r="D10">
-        <v>0.01982886845620513</v>
+        <v>0.04728915363093478</v>
       </c>
       <c r="E10">
-        <v>0.2664825291885933</v>
+        <v>0.2154009667278629</v>
       </c>
       <c r="F10">
-        <v>0.3331208443213356</v>
+        <v>3.722242913566703</v>
       </c>
       <c r="G10">
-        <v>0.427851846147064</v>
+        <v>4.102058791758168</v>
       </c>
       <c r="H10">
-        <v>0.1781432210868132</v>
+        <v>0.03661192943771363</v>
       </c>
       <c r="I10">
-        <v>0.251064024769299</v>
+        <v>0.1483073386439262</v>
       </c>
       <c r="J10">
-        <v>0.6912040030897799</v>
+        <v>2.06934418973438</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>2.871552612092174</v>
       </c>
       <c r="L10">
-        <v>0.7656311493536805</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>53.74697941657655</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.23634275981712</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>5.358956722583827</v>
+      </c>
+      <c r="P10">
+        <v>5.159012352257832</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.02431583418745831</v>
+        <v>0.0830298253497137</v>
       </c>
       <c r="D11">
-        <v>0.02334407150234696</v>
+        <v>0.03987694038215039</v>
       </c>
       <c r="E11">
-        <v>0.3015433546363653</v>
+        <v>0.3737918077462226</v>
       </c>
       <c r="F11">
-        <v>0.3972834214832517</v>
+        <v>3.734711127635052</v>
       </c>
       <c r="G11">
-        <v>0.499779071383017</v>
+        <v>4.089260082888302</v>
       </c>
       <c r="H11">
-        <v>0.1980874199774263</v>
+        <v>0.05444942093648919</v>
       </c>
       <c r="I11">
-        <v>0.2985026346388935</v>
+        <v>0.1607265426585025</v>
       </c>
       <c r="J11">
-        <v>0.7762743446133697</v>
+        <v>2.055587756390253</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2.867031202821835</v>
       </c>
       <c r="L11">
-        <v>0.8566248297199053</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>58.93958795558996</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.431311202013063</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>4.969276601195389</v>
+      </c>
+      <c r="P11">
+        <v>5.844237667907919</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.02719472128399403</v>
+        <v>0.08527136143860048</v>
       </c>
       <c r="D12">
-        <v>0.02504814008511147</v>
+        <v>0.03349799599112657</v>
       </c>
       <c r="E12">
-        <v>0.3162197317667363</v>
+        <v>0.5685227196357872</v>
       </c>
       <c r="F12">
-        <v>0.4255893138304643</v>
+        <v>3.635136515685929</v>
       </c>
       <c r="G12">
-        <v>0.5303592241424582</v>
+        <v>3.958133430867662</v>
       </c>
       <c r="H12">
-        <v>0.2070673929133733</v>
+        <v>0.09117428673528849</v>
       </c>
       <c r="I12">
-        <v>0.3193328142884653</v>
+        <v>0.1637509361555303</v>
       </c>
       <c r="J12">
-        <v>0.8114134483628561</v>
+        <v>1.987417397776795</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>2.784457101464767</v>
       </c>
       <c r="L12">
-        <v>0.8941183891038662</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>61.0141096192142</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.515223743701824</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>4.501619091900068</v>
+      </c>
+      <c r="P12">
+        <v>6.285172667854397</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.02654448388338793</v>
+        <v>0.08513117034093298</v>
       </c>
       <c r="D13">
-        <v>0.0246619151133487</v>
+        <v>0.02714192195830378</v>
       </c>
       <c r="E13">
-        <v>0.3129864364250565</v>
+        <v>0.7982500052151238</v>
       </c>
       <c r="F13">
-        <v>0.4192894769141375</v>
+        <v>3.43228901727943</v>
       </c>
       <c r="G13">
-        <v>0.5236034702459875</v>
+        <v>3.714910232688169</v>
       </c>
       <c r="H13">
-        <v>0.2050612856289291</v>
+        <v>0.1438027518935741</v>
       </c>
       <c r="I13">
-        <v>0.3147010733314062</v>
+        <v>0.1593288802133781</v>
       </c>
       <c r="J13">
-        <v>0.8036940598496614</v>
+        <v>1.866732682040663</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>2.624989181811543</v>
       </c>
       <c r="L13">
-        <v>0.8858860735874998</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>60.56171125495354</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.496640434865782</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>3.945242217418993</v>
+      </c>
+      <c r="P13">
+        <v>6.561714091756073</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.0245394827074179</v>
+        <v>0.08398991491688079</v>
       </c>
       <c r="D14">
-        <v>0.02347587289235875</v>
+        <v>0.02276726683730956</v>
       </c>
       <c r="E14">
-        <v>0.3027191734713099</v>
+        <v>0.9809120700597589</v>
       </c>
       <c r="F14">
-        <v>0.3995229615158706</v>
+        <v>3.243161616471269</v>
       </c>
       <c r="G14">
-        <v>0.5022205521223526</v>
+        <v>3.493563140488618</v>
       </c>
       <c r="H14">
-        <v>0.198794585443423</v>
+        <v>0.1905905153536196</v>
       </c>
       <c r="I14">
-        <v>0.3001525754643808</v>
+        <v>0.1530172980444044</v>
       </c>
       <c r="J14">
-        <v>0.7790991562334426</v>
+        <v>1.758239104530048</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2.477652064918516</v>
       </c>
       <c r="L14">
-        <v>0.8596407984708208</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>59.10781238741663</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.437990719857254</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>3.521447823479349</v>
+      </c>
+      <c r="P14">
+        <v>6.681213205433039</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.02339503460600767</v>
+        <v>0.08302169965614858</v>
       </c>
       <c r="D15">
-        <v>0.02280257742023295</v>
+        <v>0.02157641979565383</v>
       </c>
       <c r="E15">
-        <v>0.2966303801051424</v>
+        <v>1.022773188912652</v>
       </c>
       <c r="F15">
-        <v>0.3879821154348591</v>
+        <v>3.173030227685643</v>
       </c>
       <c r="G15">
-        <v>0.489595387570688</v>
+        <v>3.413165450604424</v>
       </c>
       <c r="H15">
-        <v>0.1951571446721942</v>
+        <v>0.2020685083416396</v>
       </c>
       <c r="I15">
-        <v>0.2916463508064737</v>
+        <v>0.149875164792646</v>
       </c>
       <c r="J15">
-        <v>0.7644526169340935</v>
+        <v>1.719376932355516</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>2.422946150893637</v>
       </c>
       <c r="L15">
-        <v>0.8439994373724318</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>58.23275276678515</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.403489742225588</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>3.397042011856556</v>
+      </c>
+      <c r="P15">
+        <v>6.672644098632645</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.01793904873136754</v>
+        <v>0.0768091517174847</v>
       </c>
       <c r="D16">
-        <v>0.0196435833014732</v>
+        <v>0.0206614999938779</v>
       </c>
       <c r="E16">
-        <v>0.2643570156865636</v>
+        <v>0.9521330694515058</v>
       </c>
       <c r="F16">
-        <v>0.3294134082274169</v>
+        <v>2.969450310228837</v>
       </c>
       <c r="G16">
-        <v>0.4235563472498427</v>
+        <v>3.191024847701385</v>
       </c>
       <c r="H16">
-        <v>0.1770139447107368</v>
+        <v>0.1849301088055881</v>
       </c>
       <c r="I16">
-        <v>0.2483111238298079</v>
+        <v>0.1347347368217768</v>
       </c>
       <c r="J16">
-        <v>0.6859906116102081</v>
+        <v>1.616120120273479</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>2.270438077643206</v>
       </c>
       <c r="L16">
-        <v>0.7600436272616236</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>53.42041218339847</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.224825243238143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>3.197673945016433</v>
+      </c>
+      <c r="P16">
+        <v>6.289974309603053</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.01541631506771779</v>
+        <v>0.07269692865955069</v>
       </c>
       <c r="D17">
-        <v>0.01822746931464181</v>
+        <v>0.02216333267202941</v>
       </c>
       <c r="E17">
-        <v>0.2464983366689921</v>
+        <v>0.7969036690381728</v>
       </c>
       <c r="F17">
-        <v>0.299233964349682</v>
+        <v>2.913299800908192</v>
       </c>
       <c r="G17">
-        <v>0.387839512905316</v>
+        <v>3.137357124917372</v>
       </c>
       <c r="H17">
-        <v>0.1679522662584958</v>
+        <v>0.1451229276382549</v>
       </c>
       <c r="I17">
-        <v>0.2258384500015254</v>
+        <v>0.1266198131120122</v>
       </c>
       <c r="J17">
-        <v>0.6419049121634401</v>
+        <v>1.594197576349103</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>2.231088724627057</v>
       </c>
       <c r="L17">
-        <v>0.7127381254813514</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>50.6175008077322</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.129726994125377</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>3.264305524652656</v>
+      </c>
+      <c r="P17">
+        <v>5.934519130278204</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.01421665378034831</v>
+        <v>0.0702783947924086</v>
       </c>
       <c r="D18">
-        <v>0.01757170854602919</v>
+        <v>0.02638723764550477</v>
       </c>
       <c r="E18">
-        <v>0.2368111021894137</v>
+        <v>0.5828451569782942</v>
       </c>
       <c r="F18">
-        <v>0.2836603707724592</v>
+        <v>2.982420434128812</v>
       </c>
       <c r="G18">
-        <v>0.3687843196824616</v>
+        <v>3.228989976901062</v>
       </c>
       <c r="H18">
-        <v>0.1633878817829668</v>
+        <v>0.09242206384636376</v>
       </c>
       <c r="I18">
-        <v>0.21418916714304</v>
+        <v>0.1234161322459491</v>
       </c>
       <c r="J18">
-        <v>0.617765990309735</v>
+        <v>1.64280197249056</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>2.290349215342658</v>
       </c>
       <c r="L18">
-        <v>0.6867915875418049</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>49.05010373956264</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.079542145124833</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>3.581052678315245</v>
+      </c>
+      <c r="P18">
+        <v>5.567445309180414</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.01384959281936915</v>
+        <v>0.06951164416418099</v>
       </c>
       <c r="D19">
-        <v>0.01737436280668803</v>
+        <v>0.03257722944761454</v>
       </c>
       <c r="E19">
-        <v>0.2336215326829532</v>
+        <v>0.3794713554034388</v>
       </c>
       <c r="F19">
-        <v>0.2786678728613978</v>
+        <v>3.136038667748664</v>
       </c>
       <c r="G19">
-        <v>0.3625663277060198</v>
+        <v>3.417966541425471</v>
       </c>
       <c r="H19">
-        <v>0.1619447229845292</v>
+        <v>0.04965143063072475</v>
       </c>
       <c r="I19">
-        <v>0.2104454907997457</v>
+        <v>0.1245484272657427</v>
       </c>
       <c r="J19">
-        <v>0.609781040794303</v>
+        <v>1.737980049994235</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>2.412146519133316</v>
       </c>
       <c r="L19">
-        <v>0.678201376055938</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>48.52630519302528</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.063260432886011</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>4.089525431177577</v>
+      </c>
+      <c r="P19">
+        <v>5.230683306206117</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.01565784375765134</v>
+        <v>0.07392337770524904</v>
       </c>
       <c r="D20">
-        <v>0.01836114386408028</v>
+        <v>0.04488657005923358</v>
       </c>
       <c r="E20">
-        <v>0.248336417674615</v>
+        <v>0.2049940418446248</v>
       </c>
       <c r="F20">
-        <v>0.3022554205977812</v>
+        <v>3.548377488818744</v>
       </c>
       <c r="G20">
-        <v>0.3914821951976677</v>
+        <v>3.906184868274806</v>
       </c>
       <c r="H20">
-        <v>0.1688476433973136</v>
+        <v>0.03310199890669363</v>
       </c>
       <c r="I20">
-        <v>0.22809397312718</v>
+        <v>0.1381936777244022</v>
       </c>
       <c r="J20">
-        <v>0.6464665924751074</v>
+        <v>1.976585652005667</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>2.733302531987988</v>
       </c>
       <c r="L20">
-        <v>0.7176377595992278</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>50.91104531379341</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.1393671206487</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>5.139802171856815</v>
+      </c>
+      <c r="P20">
+        <v>4.974577159242813</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.02511047199686089</v>
+        <v>0.08528675119162088</v>
       </c>
       <c r="D21">
-        <v>0.02381284137355522</v>
+        <v>0.05098225476326945</v>
       </c>
       <c r="E21">
-        <v>0.3056919695361202</v>
+        <v>0.2165828740256686</v>
       </c>
       <c r="F21">
-        <v>0.4052077349659129</v>
+        <v>4.036203288605606</v>
       </c>
       <c r="G21">
-        <v>0.5084002489758177</v>
+        <v>4.453403074835649</v>
       </c>
       <c r="H21">
-        <v>0.2005923311113662</v>
+        <v>0.04435034009422578</v>
       </c>
       <c r="I21">
-        <v>0.3043392260331501</v>
+        <v>0.1687307837757093</v>
       </c>
       <c r="J21">
-        <v>0.7862334764032965</v>
+        <v>2.235275274773528</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>3.102694117718741</v>
       </c>
       <c r="L21">
-        <v>0.8672564140742907</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>59.5315325191745</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.454913373506884</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>5.867180996221975</v>
+      </c>
+      <c r="P21">
+        <v>5.475072095797316</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.0348953434265411</v>
+        <v>0.09306585211780583</v>
       </c>
       <c r="D22">
-        <v>0.02966828368457186</v>
+        <v>0.05479233900526737</v>
       </c>
       <c r="E22">
-        <v>0.3517947757217996</v>
+        <v>0.2302317796108468</v>
       </c>
       <c r="F22">
-        <v>0.4969749612105332</v>
+        <v>4.355534805366062</v>
       </c>
       <c r="G22">
-        <v>0.6052227473543041</v>
+        <v>4.810927686854484</v>
       </c>
       <c r="H22">
-        <v>0.2300368878523784</v>
+        <v>0.05216393196494185</v>
       </c>
       <c r="I22">
-        <v>0.3716724026670093</v>
+        <v>0.189980343635539</v>
       </c>
       <c r="J22">
-        <v>0.8955917323112743</v>
+        <v>2.404256765552475</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>3.346463625661627</v>
       </c>
       <c r="L22">
-        <v>0.9837438621826777</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>65.83203581035036</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.722660630761709</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>6.30609972789199</v>
+      </c>
+      <c r="P22">
+        <v>5.819448146435661</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.02924919907324863</v>
+        <v>0.0889157010161199</v>
       </c>
       <c r="D23">
-        <v>0.02627294652185697</v>
+        <v>0.05311951297608886</v>
       </c>
       <c r="E23">
-        <v>0.3261660791834373</v>
+        <v>0.22339424962545</v>
       </c>
       <c r="F23">
-        <v>0.4451799520236719</v>
+        <v>4.193412469530529</v>
       </c>
       <c r="G23">
-        <v>0.5511996283375993</v>
+        <v>4.630329129692484</v>
       </c>
       <c r="H23">
-        <v>0.2133301527225768</v>
+        <v>0.04798457118694222</v>
       </c>
       <c r="I23">
-        <v>0.3337218301567191</v>
+        <v>0.1786206837741515</v>
       </c>
       <c r="J23">
-        <v>0.835085317768673</v>
+        <v>2.319112224460582</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>3.225569170973714</v>
       </c>
       <c r="L23">
-        <v>0.9193486112620093</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>62.39002257965598</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.57270164683996</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>6.076899168979082</v>
+      </c>
+      <c r="P23">
+        <v>5.633318963824649</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.01554787970718507</v>
+        <v>0.07395605191453747</v>
       </c>
       <c r="D24">
-        <v>0.01830022390120689</v>
+        <v>0.04621897387416141</v>
       </c>
       <c r="E24">
-        <v>0.247503644454163</v>
+        <v>0.1971819222659867</v>
       </c>
       <c r="F24">
-        <v>0.3008839613943977</v>
+        <v>3.575199090006492</v>
       </c>
       <c r="G24">
-        <v>0.389830795630516</v>
+        <v>3.939697294097471</v>
       </c>
       <c r="H24">
-        <v>0.1684408595063189</v>
+        <v>0.03354312746422616</v>
       </c>
       <c r="I24">
-        <v>0.2270703479653733</v>
+        <v>0.1382933520695877</v>
       </c>
       <c r="J24">
-        <v>0.6444005610191397</v>
+        <v>1.993363469008813</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>2.758671792376006</v>
       </c>
       <c r="L24">
-        <v>0.7154188062907849</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>50.77819902134257</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.134995028477476</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>5.203527415270599</v>
+      </c>
+      <c r="P24">
+        <v>4.932509180376883</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.0102722542399043</v>
+        <v>0.05921124921210819</v>
       </c>
       <c r="D25">
-        <v>0.0157062022555543</v>
+        <v>0.03881785413718575</v>
       </c>
       <c r="E25">
-        <v>0.1847512862434755</v>
+        <v>0.1695198459987317</v>
       </c>
       <c r="F25">
-        <v>0.212594195838463</v>
+        <v>2.925934645170344</v>
       </c>
       <c r="G25">
-        <v>0.2719053284187609</v>
+        <v>3.213514457766308</v>
       </c>
       <c r="H25">
-        <v>0.1444601398724501</v>
+        <v>0.02062630915197694</v>
       </c>
       <c r="I25">
-        <v>0.1601965695463186</v>
+        <v>0.09991453498021663</v>
       </c>
       <c r="J25">
-        <v>0.4847457812314673</v>
+        <v>1.651351005054153</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>2.266321593351719</v>
       </c>
       <c r="L25">
-        <v>0.5431567819243952</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>39.94318751720959</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.8331197744959979</v>
+        <v>4.266343789150923</v>
+      </c>
+      <c r="P25">
+        <v>4.177003284049732</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_15/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_15/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04930022877384665</v>
+        <v>0.07642166033227227</v>
       </c>
       <c r="D2">
-        <v>0.03421315797792346</v>
+        <v>0.01799355345438158</v>
       </c>
       <c r="E2">
-        <v>0.1504483416226385</v>
+        <v>0.1106307411326437</v>
       </c>
       <c r="F2">
-        <v>2.47900260293855</v>
+        <v>1.964704655279306</v>
       </c>
       <c r="G2">
-        <v>2.715016221950663</v>
+        <v>2.071841241549237</v>
       </c>
       <c r="H2">
-        <v>0.01299766265291413</v>
+        <v>0.009533094066433823</v>
       </c>
       <c r="I2">
-        <v>0.07511446235066543</v>
+        <v>0.05287411237783113</v>
       </c>
       <c r="J2">
-        <v>1.417601950229368</v>
+        <v>1.179965807053406</v>
       </c>
       <c r="K2">
-        <v>1.932572455204436</v>
+        <v>1.3928821752217</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.6101104795864032</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.4795031850787481</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.590388101961423</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>3.615386733011519</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>3.267238499710274</v>
+      </c>
+      <c r="R2">
+        <v>3.766369936985058</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04289113102806219</v>
+        <v>0.06465642482808676</v>
       </c>
       <c r="D3">
-        <v>0.03058403714463154</v>
+        <v>0.01673375846332803</v>
       </c>
       <c r="E3">
-        <v>0.1368856183910054</v>
+        <v>0.1034432113453629</v>
       </c>
       <c r="F3">
-        <v>2.169080239185689</v>
+        <v>1.735166599426336</v>
       </c>
       <c r="G3">
-        <v>2.367678025415699</v>
+        <v>1.819367183343388</v>
       </c>
       <c r="H3">
-        <v>0.008671805559203744</v>
+        <v>0.006259922174069621</v>
       </c>
       <c r="I3">
-        <v>0.05977557709534453</v>
+        <v>0.04280637724914627</v>
       </c>
       <c r="J3">
-        <v>1.254632271139172</v>
+        <v>1.06226931426167</v>
       </c>
       <c r="K3">
-        <v>1.696349881843531</v>
+        <v>1.239088645236194</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.5711307785985156</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.4006781281892913</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.125541880348237</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>3.237891363565552</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>2.852265505660142</v>
+      </c>
+      <c r="R3">
+        <v>3.36583768287619</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.03909358383784234</v>
+        <v>0.05775402915919159</v>
       </c>
       <c r="D4">
-        <v>0.02832938234248772</v>
+        <v>0.01592420967240216</v>
       </c>
       <c r="E4">
-        <v>0.128505216404605</v>
+        <v>0.0989235242194848</v>
       </c>
       <c r="F4">
-        <v>1.980287633427238</v>
+        <v>1.594618395302177</v>
       </c>
       <c r="G4">
-        <v>2.155858678977467</v>
+        <v>1.664864055477835</v>
       </c>
       <c r="H4">
-        <v>0.00639483209906716</v>
+        <v>0.004545879614244575</v>
       </c>
       <c r="I4">
-        <v>0.0510078474205522</v>
+        <v>0.03700015625735009</v>
       </c>
       <c r="J4">
-        <v>1.155366421433115</v>
+        <v>0.989805189300597</v>
       </c>
       <c r="K4">
-        <v>1.551967535564359</v>
+        <v>1.144396458374302</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.5463704761013091</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.3534804887884704</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.839806305049862</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>3.006158546902725</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>2.596612687340368</v>
+      </c>
+      <c r="R4">
+        <v>3.120095229379018</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03756368103260188</v>
+        <v>0.05520673090946815</v>
       </c>
       <c r="D5">
-        <v>0.02731773306983953</v>
+        <v>0.0155365986142364</v>
       </c>
       <c r="E5">
-        <v>0.1249620901618975</v>
+        <v>0.09698182594632954</v>
       </c>
       <c r="F5">
-        <v>1.901604751176635</v>
+        <v>1.53571988384347</v>
       </c>
       <c r="G5">
-        <v>2.067318265809774</v>
+        <v>1.599961492343368</v>
       </c>
       <c r="H5">
-        <v>0.005547756238996726</v>
+        <v>0.003911537208792892</v>
       </c>
       <c r="I5">
-        <v>0.04757498625050527</v>
+        <v>0.03474140177254625</v>
       </c>
       <c r="J5">
-        <v>1.113833251133599</v>
+        <v>0.9591833212629126</v>
       </c>
       <c r="K5">
-        <v>1.491012733291214</v>
+        <v>1.103977144037032</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.5353603060302348</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.3339188877604187</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.722034504968505</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>2.91228595974988</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>2.491133005511685</v>
+      </c>
+      <c r="R5">
+        <v>3.02050984525502</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03729965197766649</v>
+        <v>0.05502595250550257</v>
       </c>
       <c r="D6">
-        <v>0.02704455341148915</v>
+        <v>0.01541235994900703</v>
       </c>
       <c r="E6">
-        <v>0.12423757233773</v>
+        <v>0.09657004022590598</v>
       </c>
       <c r="F6">
-        <v>1.886041755551631</v>
+        <v>1.523882112285165</v>
       </c>
       <c r="G6">
-        <v>2.049562143839978</v>
+        <v>1.586712759396335</v>
       </c>
       <c r="H6">
-        <v>0.005405440019269236</v>
+        <v>0.003805626518437077</v>
       </c>
       <c r="I6">
-        <v>0.04701493251635647</v>
+        <v>0.03440856453945784</v>
       </c>
       <c r="J6">
-        <v>1.105421800456384</v>
+        <v>0.9528339264845727</v>
       </c>
       <c r="K6">
-        <v>1.47816178503767</v>
+        <v>1.095125374282091</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.5326529780290628</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.3299342471212228</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.700977756645031</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>2.897370821025817</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>2.472297931643652</v>
+      </c>
+      <c r="R6">
+        <v>3.004603496103044</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.03903775556895317</v>
+        <v>0.05819698545101204</v>
       </c>
       <c r="D7">
-        <v>0.02802800099594904</v>
+        <v>0.01565801311116388</v>
       </c>
       <c r="E7">
-        <v>0.1280864888776492</v>
+        <v>0.09852929878965355</v>
       </c>
       <c r="F7">
-        <v>1.972322940891686</v>
+        <v>1.58477623263515</v>
       </c>
       <c r="G7">
-        <v>2.146236714577498</v>
+        <v>1.663155170624947</v>
       </c>
       <c r="H7">
-        <v>0.006363231601991537</v>
+        <v>0.004516508597200986</v>
       </c>
       <c r="I7">
-        <v>0.05094539320027192</v>
+        <v>0.03701660907862614</v>
       </c>
       <c r="J7">
-        <v>1.150624103300913</v>
+        <v>0.9733345499446386</v>
       </c>
       <c r="K7">
-        <v>1.543636308258669</v>
+        <v>1.135565867359304</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.5428973237157564</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.3502552226999427</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.834119635441056</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>3.006736233539243</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>2.589460695368004</v>
+      </c>
+      <c r="R7">
+        <v>3.121506356658614</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04700522035587884</v>
+        <v>0.07258194810916052</v>
       </c>
       <c r="D8">
-        <v>0.03258008349066444</v>
+        <v>0.01702820290955742</v>
       </c>
       <c r="E8">
-        <v>0.1452805422057004</v>
+        <v>0.1074422386095186</v>
       </c>
       <c r="F8">
-        <v>2.36249663024455</v>
+        <v>1.866536384818076</v>
       </c>
       <c r="G8">
-        <v>2.583561677777482</v>
+        <v>1.995532812332868</v>
       </c>
       <c r="H8">
-        <v>0.01138694811854227</v>
+        <v>0.00828481206885745</v>
       </c>
       <c r="I8">
-        <v>0.06960587801622342</v>
+        <v>0.04925864336253927</v>
       </c>
       <c r="J8">
-        <v>1.355601247312535</v>
+        <v>1.092934823547068</v>
       </c>
       <c r="K8">
-        <v>1.840858237327424</v>
+        <v>1.323959429549106</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.5906649339623939</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.446148199806899</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.424638408940837</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>3.487694450657756</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>3.112307638078093</v>
+      </c>
+      <c r="R8">
+        <v>3.634020236594552</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06409485618679112</v>
+        <v>0.103156515084585</v>
       </c>
       <c r="D9">
-        <v>0.04184549713856001</v>
+        <v>0.02006983251893857</v>
       </c>
       <c r="E9">
-        <v>0.1794819778072849</v>
+        <v>0.1250412879032474</v>
       </c>
       <c r="F9">
-        <v>3.155655291200901</v>
+        <v>2.446533223556855</v>
       </c>
       <c r="G9">
-        <v>3.471894432026346</v>
+        <v>2.644410444736366</v>
       </c>
       <c r="H9">
-        <v>0.02473644803560204</v>
+        <v>0.01838735250506895</v>
       </c>
       <c r="I9">
-        <v>0.11240840864789</v>
+        <v>0.07679820315542152</v>
       </c>
       <c r="J9">
-        <v>1.773344050716759</v>
+        <v>1.377944343197669</v>
       </c>
       <c r="K9">
-        <v>2.445005820689573</v>
+        <v>1.7116896453755</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.6855358451749396</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.6515602548089134</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>4.589281165406106</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>4.428026065220081</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>4.145980305298707</v>
+      </c>
+      <c r="R9">
+        <v>4.633840120938714</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.07775122600475015</v>
+        <v>0.1259605230085299</v>
       </c>
       <c r="D10">
-        <v>0.04728915363093478</v>
+        <v>0.02094757809941328</v>
       </c>
       <c r="E10">
-        <v>0.2154009667278629</v>
+        <v>0.1440718286911764</v>
       </c>
       <c r="F10">
-        <v>3.722242913566703</v>
+        <v>2.834410871225401</v>
       </c>
       <c r="G10">
-        <v>4.102058791758168</v>
+        <v>3.135886545587709</v>
       </c>
       <c r="H10">
-        <v>0.03661192943771363</v>
+        <v>0.02726181112616066</v>
       </c>
       <c r="I10">
-        <v>0.1483073386439262</v>
+        <v>0.09926723776531077</v>
       </c>
       <c r="J10">
-        <v>2.06934418973438</v>
+        <v>1.50007092163429</v>
       </c>
       <c r="K10">
-        <v>2.871552612092174</v>
+        <v>1.965127005954102</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.7400534914676342</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.7968197178381899</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>5.358956722583827</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>5.159012352257832</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>4.809377455592454</v>
+      </c>
+      <c r="R10">
+        <v>5.415461774797905</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.0830298253497137</v>
+        <v>0.1257467974873805</v>
       </c>
       <c r="D11">
-        <v>0.03987694038215039</v>
+        <v>0.01611173005552402</v>
       </c>
       <c r="E11">
-        <v>0.3737918077462226</v>
+        <v>0.2611811192853892</v>
       </c>
       <c r="F11">
-        <v>3.734711127635052</v>
+        <v>2.788997519427454</v>
       </c>
       <c r="G11">
-        <v>4.089260082888302</v>
+        <v>3.192467043225605</v>
       </c>
       <c r="H11">
-        <v>0.05444942093648919</v>
+        <v>0.04467243318366343</v>
       </c>
       <c r="I11">
-        <v>0.1607265426585025</v>
+        <v>0.1068005526453577</v>
       </c>
       <c r="J11">
-        <v>2.055587756390253</v>
+        <v>1.327438758498857</v>
       </c>
       <c r="K11">
-        <v>2.867031202821835</v>
+        <v>1.91910948766953</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.7072007176512187</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.7984734390971369</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4.969276601195389</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>5.844237667907919</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>4.412057577912108</v>
+      </c>
+      <c r="R11">
+        <v>6.133884761731849</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.08527136143860048</v>
+        <v>0.1210844730900718</v>
       </c>
       <c r="D12">
-        <v>0.03349799599112657</v>
+        <v>0.01309726348219264</v>
       </c>
       <c r="E12">
-        <v>0.5685227196357872</v>
+        <v>0.4233411202974935</v>
       </c>
       <c r="F12">
-        <v>3.635136515685929</v>
+        <v>2.69014954449662</v>
       </c>
       <c r="G12">
-        <v>3.958133430867662</v>
+        <v>3.12352928365496</v>
       </c>
       <c r="H12">
-        <v>0.09117428673528849</v>
+        <v>0.08159018722007971</v>
       </c>
       <c r="I12">
-        <v>0.1637509361555303</v>
+        <v>0.1085451994296198</v>
       </c>
       <c r="J12">
-        <v>1.987417397776795</v>
+        <v>1.210021989629524</v>
       </c>
       <c r="K12">
-        <v>2.784457101464767</v>
+        <v>1.845244295445738</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.6751223870241319</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.7759904478531325</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.501619091900068</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>6.285172667854397</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>3.968906772853899</v>
+      </c>
+      <c r="R12">
+        <v>6.588348314216205</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.08513117034093298</v>
+        <v>0.1140628708029041</v>
       </c>
       <c r="D13">
-        <v>0.02714192195830378</v>
+        <v>0.01097952667624824</v>
       </c>
       <c r="E13">
-        <v>0.7982500052151238</v>
+        <v>0.6292287036512718</v>
       </c>
       <c r="F13">
-        <v>3.43228901727943</v>
+        <v>2.543299577489762</v>
       </c>
       <c r="G13">
-        <v>3.714910232688169</v>
+        <v>2.928140913363649</v>
       </c>
       <c r="H13">
-        <v>0.1438027518935741</v>
+        <v>0.1349473881855658</v>
       </c>
       <c r="I13">
-        <v>0.1593288802133781</v>
+        <v>0.1059824942562972</v>
       </c>
       <c r="J13">
-        <v>1.866732682040663</v>
+        <v>1.144725441422281</v>
       </c>
       <c r="K13">
-        <v>2.624989181811543</v>
+        <v>1.742054687760657</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.6400528708192326</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.7324223065464821</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.945242217418993</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>6.561714091756073</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>3.466414392990941</v>
+      </c>
+      <c r="R13">
+        <v>6.8600110062402</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.08398991491688079</v>
+        <v>0.1083034466696304</v>
       </c>
       <c r="D14">
-        <v>0.02276726683730956</v>
+        <v>0.009825942755705697</v>
       </c>
       <c r="E14">
-        <v>0.9809120700597589</v>
+        <v>0.8006016574588415</v>
       </c>
       <c r="F14">
-        <v>3.243161616471269</v>
+        <v>2.417070741869836</v>
       </c>
       <c r="G14">
-        <v>3.493563140488618</v>
+        <v>2.735601634809342</v>
       </c>
       <c r="H14">
-        <v>0.1905905153536196</v>
+        <v>0.1824418556831944</v>
       </c>
       <c r="I14">
-        <v>0.1530172980444044</v>
+        <v>0.1023494671443759</v>
       </c>
       <c r="J14">
-        <v>1.758239104530048</v>
+        <v>1.118242823887556</v>
       </c>
       <c r="K14">
-        <v>2.477652064918516</v>
+        <v>1.654777594751138</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.6132907447941562</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.6919342023960979</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.521447823479349</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>6.681213205433039</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>3.09156221778359</v>
+      </c>
+      <c r="R14">
+        <v>6.967589611860262</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.08302169965614858</v>
+        <v>0.1064320889949926</v>
       </c>
       <c r="D15">
-        <v>0.02157641979565383</v>
+        <v>0.009583243773770178</v>
       </c>
       <c r="E15">
-        <v>1.022773188912652</v>
+        <v>0.8422172917218802</v>
       </c>
       <c r="F15">
-        <v>3.173030227685643</v>
+        <v>2.373315849376212</v>
       </c>
       <c r="G15">
-        <v>3.413165450604424</v>
+        <v>2.661534712568113</v>
       </c>
       <c r="H15">
-        <v>0.2020685083416396</v>
+        <v>0.1942216649223525</v>
       </c>
       <c r="I15">
-        <v>0.149875164792646</v>
+        <v>0.1005661677687968</v>
       </c>
       <c r="J15">
-        <v>1.719376932355516</v>
+        <v>1.118506652249465</v>
       </c>
       <c r="K15">
-        <v>2.422946150893637</v>
+        <v>1.624589853753832</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.6050648788746003</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.6766128308832862</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.397042011856556</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>6.672644098632645</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>2.984370810752011</v>
+      </c>
+      <c r="R15">
+        <v>6.952346496752796</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.0768091517174847</v>
+        <v>0.09968233925243197</v>
       </c>
       <c r="D16">
-        <v>0.0206614999938779</v>
+        <v>0.009852283252567595</v>
       </c>
       <c r="E16">
-        <v>0.9521330694515058</v>
+        <v>0.792160859726792</v>
       </c>
       <c r="F16">
-        <v>2.969450310228837</v>
+        <v>2.264033627590521</v>
       </c>
       <c r="G16">
-        <v>3.191024847701385</v>
+        <v>2.437037903680306</v>
       </c>
       <c r="H16">
-        <v>0.1849301088055881</v>
+        <v>0.1783431592792795</v>
       </c>
       <c r="I16">
-        <v>0.1347347368217768</v>
+        <v>0.09156302480805234</v>
       </c>
       <c r="J16">
-        <v>1.616120120273479</v>
+        <v>1.177331567000209</v>
       </c>
       <c r="K16">
-        <v>2.270438077643206</v>
+        <v>1.555433306637269</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.5945416008380064</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.6310180727632826</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.197673945016433</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>6.289974309603053</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>2.831878009526974</v>
+      </c>
+      <c r="R16">
+        <v>6.537306475075241</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.07269692865955069</v>
+        <v>0.09746713707474441</v>
       </c>
       <c r="D17">
-        <v>0.02216333267202941</v>
+        <v>0.01068658630500607</v>
       </c>
       <c r="E17">
-        <v>0.7969036690381728</v>
+        <v>0.656054659992499</v>
       </c>
       <c r="F17">
-        <v>2.913299800908192</v>
+        <v>2.242375515786904</v>
       </c>
       <c r="G17">
-        <v>3.137357124917372</v>
+        <v>2.374808630717808</v>
       </c>
       <c r="H17">
-        <v>0.1451229276382549</v>
+        <v>0.1391032268053038</v>
       </c>
       <c r="I17">
-        <v>0.1266198131120122</v>
+        <v>0.08660353691282907</v>
       </c>
       <c r="J17">
-        <v>1.594197576349103</v>
+        <v>1.22167856501909</v>
       </c>
       <c r="K17">
-        <v>2.231088724627057</v>
+        <v>1.545131650789656</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.5995980692897973</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.6159977411016655</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.264305524652656</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>5.934519130278204</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>2.90753319284326</v>
+      </c>
+      <c r="R17">
+        <v>6.165738038120082</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.0702783947924086</v>
+        <v>0.0990084099931039</v>
       </c>
       <c r="D18">
-        <v>0.02638723764550477</v>
+        <v>0.01252832541231363</v>
       </c>
       <c r="E18">
-        <v>0.5828451569782942</v>
+        <v>0.4633040683228558</v>
       </c>
       <c r="F18">
-        <v>2.982420434128812</v>
+        <v>2.305603759672977</v>
       </c>
       <c r="G18">
-        <v>3.228989976901062</v>
+        <v>2.436428165547909</v>
       </c>
       <c r="H18">
-        <v>0.09242206384636376</v>
+        <v>0.0864441304187693</v>
       </c>
       <c r="I18">
-        <v>0.1234161322459491</v>
+        <v>0.08445639878189226</v>
       </c>
       <c r="J18">
-        <v>1.64280197249056</v>
+        <v>1.285769882838224</v>
       </c>
       <c r="K18">
-        <v>2.290349215342658</v>
+        <v>1.594458107051821</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.6225794830899218</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.6292196906559013</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.581052678315245</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>5.567445309180414</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>3.205574220744452</v>
+      </c>
+      <c r="R18">
+        <v>5.791662720928571</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06951164416418099</v>
+        <v>0.1052803720111442</v>
       </c>
       <c r="D19">
-        <v>0.03257722944761454</v>
+        <v>0.01528665385132477</v>
       </c>
       <c r="E19">
-        <v>0.3794713554034388</v>
+        <v>0.2832055338289408</v>
       </c>
       <c r="F19">
-        <v>3.136038667748664</v>
+        <v>2.42644746761448</v>
       </c>
       <c r="G19">
-        <v>3.417966541425471</v>
+        <v>2.57760818922597</v>
       </c>
       <c r="H19">
-        <v>0.04965143063072475</v>
+        <v>0.04322078172402399</v>
       </c>
       <c r="I19">
-        <v>0.1245484272657427</v>
+        <v>0.08513863622004259</v>
       </c>
       <c r="J19">
-        <v>1.737980049994235</v>
+        <v>1.366049480668579</v>
       </c>
       <c r="K19">
-        <v>2.412146519133316</v>
+        <v>1.680744114066826</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.6556441291028676</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.6612283870455684</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>4.089525431177577</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>5.230683306206117</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>3.67570670584297</v>
+      </c>
+      <c r="R19">
+        <v>5.453906100454788</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.07392337770524904</v>
+        <v>0.1227381013873767</v>
       </c>
       <c r="D20">
-        <v>0.04488657005923358</v>
+        <v>0.02057131061410544</v>
       </c>
       <c r="E20">
-        <v>0.2049940418446248</v>
+        <v>0.1390140690041584</v>
       </c>
       <c r="F20">
-        <v>3.548377488818744</v>
+        <v>2.725718239074695</v>
       </c>
       <c r="G20">
-        <v>3.906184868274806</v>
+        <v>2.961003202272508</v>
       </c>
       <c r="H20">
-        <v>0.03310199890669363</v>
+        <v>0.02469985076912096</v>
       </c>
       <c r="I20">
-        <v>0.1381936777244022</v>
+        <v>0.09348837014804001</v>
       </c>
       <c r="J20">
-        <v>1.976585652005667</v>
+        <v>1.501978059081665</v>
       </c>
       <c r="K20">
-        <v>2.733302531987988</v>
+        <v>1.88827073314431</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.7222533754849962</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.7540881291896682</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>5.139802171856815</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>4.974577159242813</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>4.628623620225966</v>
+      </c>
+      <c r="R20">
+        <v>5.213328703339073</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.08528675119162088</v>
+        <v>0.1388881453188162</v>
       </c>
       <c r="D21">
-        <v>0.05098225476326945</v>
+        <v>0.02038521080961075</v>
       </c>
       <c r="E21">
-        <v>0.2165828740256686</v>
+        <v>0.140576068736447</v>
       </c>
       <c r="F21">
-        <v>4.036203288605606</v>
+        <v>2.995163100021955</v>
       </c>
       <c r="G21">
-        <v>4.453403074835649</v>
+        <v>3.504752944040007</v>
       </c>
       <c r="H21">
-        <v>0.04435034009422578</v>
+        <v>0.03280813119050929</v>
       </c>
       <c r="I21">
-        <v>0.1687307837757093</v>
+        <v>0.1114558373589594</v>
       </c>
       <c r="J21">
-        <v>2.235275274773528</v>
+        <v>1.386183556691151</v>
       </c>
       <c r="K21">
-        <v>3.102694117718741</v>
+        <v>2.062726556185069</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.7560215419150325</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.8594994300254655</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>5.867180996221975</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>5.475072095797316</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>5.218641584623128</v>
+      </c>
+      <c r="R21">
+        <v>5.7740596888097</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.09306585211780583</v>
+        <v>0.1482180923597767</v>
       </c>
       <c r="D22">
-        <v>0.05479233900526737</v>
+        <v>0.02003433086665041</v>
       </c>
       <c r="E22">
-        <v>0.2302317796108468</v>
+        <v>0.1455119069687605</v>
       </c>
       <c r="F22">
-        <v>4.355534805366062</v>
+        <v>3.163787318720978</v>
       </c>
       <c r="G22">
-        <v>4.810927686854484</v>
+        <v>3.873826737285157</v>
       </c>
       <c r="H22">
-        <v>0.05216393196494185</v>
+        <v>0.03835404041151591</v>
       </c>
       <c r="I22">
-        <v>0.189980343635539</v>
+        <v>0.1236387192252675</v>
       </c>
       <c r="J22">
-        <v>2.404256765552475</v>
+        <v>1.298529506250844</v>
       </c>
       <c r="K22">
-        <v>3.346463625661627</v>
+        <v>2.173029102461726</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.7762634185337021</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.9280270833726973</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>6.30609972789199</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>5.819448146435661</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>5.564708962893519</v>
+      </c>
+      <c r="R22">
+        <v>6.160269004372594</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.0889157010161199</v>
+        <v>0.1428281209891864</v>
       </c>
       <c r="D23">
-        <v>0.05311951297608886</v>
+        <v>0.02062227293987107</v>
       </c>
       <c r="E23">
-        <v>0.22339424962545</v>
+        <v>0.1433866556198353</v>
       </c>
       <c r="F23">
-        <v>4.193412469530529</v>
+        <v>3.089803932389003</v>
       </c>
       <c r="G23">
-        <v>4.630329129692484</v>
+        <v>3.667593441397145</v>
       </c>
       <c r="H23">
-        <v>0.04798457118694222</v>
+        <v>0.03543076393495737</v>
       </c>
       <c r="I23">
-        <v>0.1786206837741515</v>
+        <v>0.117116407588072</v>
       </c>
       <c r="J23">
-        <v>2.319112224460582</v>
+        <v>1.378677348758544</v>
       </c>
       <c r="K23">
-        <v>3.225569170973714</v>
+        <v>2.127750867120014</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.7702771375793844</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.896912806166867</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>6.076899168979082</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>5.633318963824649</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>5.390519312609456</v>
+      </c>
+      <c r="R23">
+        <v>5.948976799247419</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.07395605191453747</v>
+        <v>0.1221083456761676</v>
       </c>
       <c r="D24">
-        <v>0.04621897387416141</v>
+        <v>0.0212652908887776</v>
       </c>
       <c r="E24">
-        <v>0.1971819222659867</v>
+        <v>0.133731432048382</v>
       </c>
       <c r="F24">
-        <v>3.575199090006492</v>
+        <v>2.747554434981282</v>
       </c>
       <c r="G24">
-        <v>3.939697294097471</v>
+        <v>2.986006441286321</v>
       </c>
       <c r="H24">
-        <v>0.03354312746422616</v>
+        <v>0.0250438045045569</v>
       </c>
       <c r="I24">
-        <v>0.1382933520695877</v>
+        <v>0.09332469335434812</v>
       </c>
       <c r="J24">
-        <v>1.993363469008813</v>
+        <v>1.517581161669881</v>
       </c>
       <c r="K24">
-        <v>2.758671792376006</v>
+        <v>1.907384845043751</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.7295924278565735</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.7612081666552655</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>5.203527415270599</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>4.932509180376883</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>4.687594683003482</v>
+      </c>
+      <c r="R24">
+        <v>5.170851824788087</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,48 +1793,54 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05921124921210819</v>
+        <v>0.09607721926552415</v>
       </c>
       <c r="D25">
-        <v>0.03881785413718575</v>
+        <v>0.01913362414919106</v>
       </c>
       <c r="E25">
-        <v>0.1695198459987317</v>
+        <v>0.1200993054146444</v>
       </c>
       <c r="F25">
-        <v>2.925934645170344</v>
+        <v>2.283365010121855</v>
       </c>
       <c r="G25">
-        <v>3.213514457766308</v>
+        <v>2.446578411561205</v>
       </c>
       <c r="H25">
-        <v>0.02062630915197694</v>
+        <v>0.015297888267367</v>
       </c>
       <c r="I25">
-        <v>0.09991453498021663</v>
+        <v>0.06906212618824803</v>
       </c>
       <c r="J25">
-        <v>1.651351005054153</v>
+        <v>1.31268722996171</v>
       </c>
       <c r="K25">
-        <v>2.266321593351719</v>
+        <v>1.599589295441717</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.6578664326142132</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.5919868352628015</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>4.266343789150923</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>4.177003284049732</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>3.863334533626514</v>
+      </c>
+      <c r="R25">
+        <v>4.364835634342171</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
